--- a/documentos/Gerador de código Base Corporativa.xlsx
+++ b/documentos/Gerador de código Base Corporativa.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_sourceCode\GitHub\CoreBank\APIsIntegracao\implantacaoSinqia\API\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Implantacao\implantacaoSinqia\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EFEC8B-3BDA-4677-8D73-0F638E62BADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geração propriedades" sheetId="3" r:id="rId1"/>
     <sheet name="Geração para adaptador" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="181">
   <si>
     <t>string</t>
   </si>
@@ -513,12 +514,75 @@
   </si>
   <si>
     <t>msg to base</t>
+  </si>
+  <si>
+    <t>TB_GRPEMP</t>
+  </si>
+  <si>
+    <t>COD_GRPEMP</t>
+  </si>
+  <si>
+    <t>ABV_GRPEMP</t>
+  </si>
+  <si>
+    <t>DES_GRPEMP</t>
+  </si>
+  <si>
+    <t>GRPCODCRK</t>
+  </si>
+  <si>
+    <t>GRPIDCLDRBR</t>
+  </si>
+  <si>
+    <t>GRPCODCNPJLDRBR</t>
+  </si>
+  <si>
+    <t>NACCOD</t>
+  </si>
+  <si>
+    <t>Código do Grupo Empresarial</t>
+  </si>
+  <si>
+    <t>Nome abreviado do Grupo Empresarial</t>
+  </si>
+  <si>
+    <t>Nome do Grupo Empresarial</t>
+  </si>
+  <si>
+    <t>Identifica se a empresa líder é brasileira</t>
+  </si>
+  <si>
+    <t>CNPJ da empresa líder</t>
+  </si>
+  <si>
+    <t>Código da Nascionalidade</t>
+  </si>
+  <si>
+    <t>codigoGrupoEmpresarial</t>
+  </si>
+  <si>
+    <t>nomeAbreviadoGrupoEmpresarial</t>
+  </si>
+  <si>
+    <t>nomedoGrupoEmpresarial</t>
+  </si>
+  <si>
+    <t>codigoEmpresaSisbacen</t>
+  </si>
+  <si>
+    <t>identificaEmpresaLiderBrasileira</t>
+  </si>
+  <si>
+    <t>cnpjEmpresaLider</t>
+  </si>
+  <si>
+    <t>codigoNascionalidade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -890,11 +954,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F387"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +966,7 @@
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="111.5703125" customWidth="1"/>
     <col min="7" max="7" width="58.42578125" customWidth="1"/>
@@ -967,7 +1031,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="4" t="str">
-        <f t="shared" ref="F3:F48" si="0">CONCATENATE("|/// &lt;summary&gt;|/// ",C3,"|/// &lt;/summary&gt;| public ",E3," ",D3," { get; set; }")</f>
+        <f t="shared" ref="F3:F58" si="0">CONCATENATE("|/// &lt;summary&gt;|/// ",C3,"|/// &lt;/summary&gt;| public ",E3," ",D3," { get; set; }")</f>
         <v>|/// &lt;summary&gt;|/// Código Câmara compensação|/// &lt;/summary&gt;| public int codigoCamaraCompensacao { get; set; }</v>
       </c>
     </row>
@@ -1922,79 +1986,196 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|/// &lt;summary&gt;|/// Código do Grupo Empresarial|/// &lt;/summary&gt;| public int codigoGrupoEmpresarial { get; set; }</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|/// &lt;summary&gt;|/// Nome abreviado do Grupo Empresarial|/// &lt;/summary&gt;| public string nomeAbreviadoGrupoEmpresarial { get; set; }</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="A52" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|/// &lt;summary&gt;|/// Nome do Grupo Empresarial|/// &lt;/summary&gt;| public string nomedoGrupoEmpresarial { get; set; }</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="A53" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|/// &lt;summary&gt;|/// Código Empresa Sisbacen|/// &lt;/summary&gt;| public int codigoEmpresaSisbacen { get; set; }</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="A54" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|/// &lt;summary&gt;|/// Código Dependência Sisbacen|/// &lt;/summary&gt;| public int codigoDependenciaSisbacen { get; set; }</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="A55" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|/// &lt;summary&gt;|/// Código CRK|/// &lt;/summary&gt;| public string codigoCRK { get; set; }</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|/// &lt;summary&gt;|/// Identifica se a empresa líder é brasileira|/// &lt;/summary&gt;| public string identificaEmpresaLiderBrasileira { get; set; }</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="A57" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|/// &lt;summary&gt;|/// CNPJ da empresa líder|/// &lt;/summary&gt;| public string cnpjEmpresaLider { get; set; }</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+      <c r="A58" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|/// &lt;summary&gt;|/// Código da Nascionalidade|/// &lt;/summary&gt;| public int codigoNascionalidade { get; set; }</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
@@ -4630,10 +4811,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L390"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -6723,7 +6904,7 @@
       </c>
       <c r="L49" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="50" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6737,7 +6918,7 @@
       </c>
       <c r="L50" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="51" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6751,7 +6932,7 @@
       </c>
       <c r="L51" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="52" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6765,7 +6946,7 @@
       </c>
       <c r="L52" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="53" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6779,7 +6960,7 @@
       </c>
       <c r="L53" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="54" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6793,7 +6974,7 @@
       </c>
       <c r="L54" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="55" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6807,7 +6988,7 @@
       </c>
       <c r="L55" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="56" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6821,7 +7002,7 @@
       </c>
       <c r="L56" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="57" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6835,7 +7016,7 @@
       </c>
       <c r="L57" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="58" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6849,7 +7030,7 @@
       </c>
       <c r="L58" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="59" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6863,7 +7044,7 @@
       </c>
       <c r="L59" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="60" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6877,7 +7058,7 @@
       </c>
       <c r="L60" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="61" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6891,7 +7072,7 @@
       </c>
       <c r="L61" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="62" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6905,7 +7086,7 @@
       </c>
       <c r="L62" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="63" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6919,7 +7100,7 @@
       </c>
       <c r="L63" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="64" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6933,7 +7114,7 @@
       </c>
       <c r="L64" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="65" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6947,7 +7128,7 @@
       </c>
       <c r="L65" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="66" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6961,7 +7142,7 @@
       </c>
       <c r="L66" s="5" t="str">
         <f t="shared" ref="L66:L129" si="7">CONCATENATE("|if(",K66,")","| ",G66,".",D66," = ",F66,".",B66,";")</f>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="67" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6975,7 +7156,7 @@
       </c>
       <c r="L67" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="68" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6989,7 +7170,7 @@
       </c>
       <c r="L68" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="69" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7003,7 +7184,7 @@
       </c>
       <c r="L69" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="70" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7017,7 +7198,7 @@
       </c>
       <c r="L70" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="71" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7031,7 +7212,7 @@
       </c>
       <c r="L71" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="72" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7045,7 +7226,7 @@
       </c>
       <c r="L72" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="73" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7059,7 +7240,7 @@
       </c>
       <c r="L73" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="74" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7073,7 +7254,7 @@
       </c>
       <c r="L74" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="75" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7087,7 +7268,7 @@
       </c>
       <c r="L75" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="76" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7101,7 +7282,7 @@
       </c>
       <c r="L76" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="77" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7115,7 +7296,7 @@
       </c>
       <c r="L77" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="78" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7129,7 +7310,7 @@
       </c>
       <c r="L78" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="79" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7143,7 +7324,7 @@
       </c>
       <c r="L79" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="80" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7157,7 +7338,7 @@
       </c>
       <c r="L80" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="81" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7171,7 +7352,7 @@
       </c>
       <c r="L81" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="82" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7185,7 +7366,7 @@
       </c>
       <c r="L82" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="83" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7199,7 +7380,7 @@
       </c>
       <c r="L83" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="84" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7213,7 +7394,7 @@
       </c>
       <c r="L84" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="85" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7227,7 +7408,7 @@
       </c>
       <c r="L85" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="86" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7241,7 +7422,7 @@
       </c>
       <c r="L86" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="87" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7255,7 +7436,7 @@
       </c>
       <c r="L87" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="88" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7269,7 +7450,7 @@
       </c>
       <c r="L88" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="89" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7283,7 +7464,7 @@
       </c>
       <c r="L89" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="90" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7297,7 +7478,7 @@
       </c>
       <c r="L90" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="91" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7311,7 +7492,7 @@
       </c>
       <c r="L91" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="92" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7325,7 +7506,7 @@
       </c>
       <c r="L92" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="93" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7339,7 +7520,7 @@
       </c>
       <c r="L93" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="94" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7353,7 +7534,7 @@
       </c>
       <c r="L94" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="95" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7367,7 +7548,7 @@
       </c>
       <c r="L95" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="96" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7381,7 +7562,7 @@
       </c>
       <c r="L96" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="97" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7395,7 +7576,7 @@
       </c>
       <c r="L97" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="98" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7409,7 +7590,7 @@
       </c>
       <c r="L98" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="99" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7423,7 +7604,7 @@
       </c>
       <c r="L99" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="100" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7437,7 +7618,7 @@
       </c>
       <c r="L100" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="101" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7451,7 +7632,7 @@
       </c>
       <c r="L101" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="102" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7465,7 +7646,7 @@
       </c>
       <c r="L102" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="103" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7479,7 +7660,7 @@
       </c>
       <c r="L103" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="104" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7493,7 +7674,7 @@
       </c>
       <c r="L104" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="105" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7507,7 +7688,7 @@
       </c>
       <c r="L105" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="106" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7521,7 +7702,7 @@
       </c>
       <c r="L106" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="107" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7535,7 +7716,7 @@
       </c>
       <c r="L107" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="108" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7549,7 +7730,7 @@
       </c>
       <c r="L108" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="109" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7563,7 +7744,7 @@
       </c>
       <c r="L109" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="110" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7577,7 +7758,7 @@
       </c>
       <c r="L110" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="111" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7591,7 +7772,7 @@
       </c>
       <c r="L111" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="112" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7605,7 +7786,7 @@
       </c>
       <c r="L112" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="113" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7619,7 +7800,7 @@
       </c>
       <c r="L113" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="114" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7633,7 +7814,7 @@
       </c>
       <c r="L114" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="115" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7647,7 +7828,7 @@
       </c>
       <c r="L115" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="116" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7661,7 +7842,7 @@
       </c>
       <c r="L116" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="117" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7675,7 +7856,7 @@
       </c>
       <c r="L117" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="118" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7689,7 +7870,7 @@
       </c>
       <c r="L118" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="119" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7703,7 +7884,7 @@
       </c>
       <c r="L119" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="120" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7717,7 +7898,7 @@
       </c>
       <c r="L120" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="121" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7731,7 +7912,7 @@
       </c>
       <c r="L121" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="122" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7745,7 +7926,7 @@
       </c>
       <c r="L122" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="123" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7759,7 +7940,7 @@
       </c>
       <c r="L123" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="124" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7773,7 +7954,7 @@
       </c>
       <c r="L124" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="125" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7787,7 +7968,7 @@
       </c>
       <c r="L125" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="126" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7801,7 +7982,7 @@
       </c>
       <c r="L126" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="127" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7815,7 +7996,7 @@
       </c>
       <c r="L127" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="128" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7829,7 +8010,7 @@
       </c>
       <c r="L128" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="129" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7843,7 +8024,7 @@
       </c>
       <c r="L129" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="130" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7857,7 +8038,7 @@
       </c>
       <c r="L130" s="5" t="str">
         <f t="shared" ref="L130:L193" si="10">CONCATENATE("|if(",K130,")","| ",G130,".",D130," = ",F130,".",B130,";")</f>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="131" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7871,7 +8052,7 @@
       </c>
       <c r="L131" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="132" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7885,7 +8066,7 @@
       </c>
       <c r="L132" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="133" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7899,7 +8080,7 @@
       </c>
       <c r="L133" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -7921,7 +8102,7 @@
       </c>
       <c r="L134" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -7943,7 +8124,7 @@
       </c>
       <c r="L135" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -7965,7 +8146,7 @@
       </c>
       <c r="L136" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -7987,7 +8168,7 @@
       </c>
       <c r="L137" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -8009,7 +8190,7 @@
       </c>
       <c r="L138" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -8031,7 +8212,7 @@
       </c>
       <c r="L139" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -8053,7 +8234,7 @@
       </c>
       <c r="L140" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -8075,7 +8256,7 @@
       </c>
       <c r="L141" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -8097,7 +8278,7 @@
       </c>
       <c r="L142" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -8119,7 +8300,7 @@
       </c>
       <c r="L143" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -8141,7 +8322,7 @@
       </c>
       <c r="L144" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -8163,7 +8344,7 @@
       </c>
       <c r="L145" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -8185,7 +8366,7 @@
       </c>
       <c r="L146" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -8207,7 +8388,7 @@
       </c>
       <c r="L147" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -8229,7 +8410,7 @@
       </c>
       <c r="L148" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -8251,7 +8432,7 @@
       </c>
       <c r="L149" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -8273,7 +8454,7 @@
       </c>
       <c r="L150" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -8295,7 +8476,7 @@
       </c>
       <c r="L151" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -8317,7 +8498,7 @@
       </c>
       <c r="L152" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -8339,7 +8520,7 @@
       </c>
       <c r="L153" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -8361,7 +8542,7 @@
       </c>
       <c r="L154" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -8383,7 +8564,7 @@
       </c>
       <c r="L155" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -8405,7 +8586,7 @@
       </c>
       <c r="L156" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -8427,7 +8608,7 @@
       </c>
       <c r="L157" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -8449,7 +8630,7 @@
       </c>
       <c r="L158" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -8471,7 +8652,7 @@
       </c>
       <c r="L159" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -8493,7 +8674,7 @@
       </c>
       <c r="L160" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -8515,7 +8696,7 @@
       </c>
       <c r="L161" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -8537,7 +8718,7 @@
       </c>
       <c r="L162" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -8559,7 +8740,7 @@
       </c>
       <c r="L163" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -8581,7 +8762,7 @@
       </c>
       <c r="L164" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -8603,7 +8784,7 @@
       </c>
       <c r="L165" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -8625,7 +8806,7 @@
       </c>
       <c r="L166" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -8647,7 +8828,7 @@
       </c>
       <c r="L167" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -8669,7 +8850,7 @@
       </c>
       <c r="L168" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -8691,7 +8872,7 @@
       </c>
       <c r="L169" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -8713,7 +8894,7 @@
       </c>
       <c r="L170" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -8735,7 +8916,7 @@
       </c>
       <c r="L171" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -8757,7 +8938,7 @@
       </c>
       <c r="L172" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -8779,7 +8960,7 @@
       </c>
       <c r="L173" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -8801,7 +8982,7 @@
       </c>
       <c r="L174" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -8823,7 +9004,7 @@
       </c>
       <c r="L175" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -8845,7 +9026,7 @@
       </c>
       <c r="L176" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -8867,7 +9048,7 @@
       </c>
       <c r="L177" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -8889,7 +9070,7 @@
       </c>
       <c r="L178" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -8911,7 +9092,7 @@
       </c>
       <c r="L179" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -8933,7 +9114,7 @@
       </c>
       <c r="L180" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -8955,7 +9136,7 @@
       </c>
       <c r="L181" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -8977,7 +9158,7 @@
       </c>
       <c r="L182" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -8999,7 +9180,7 @@
       </c>
       <c r="L183" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -9021,7 +9202,7 @@
       </c>
       <c r="L184" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -9043,7 +9224,7 @@
       </c>
       <c r="L185" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -9065,7 +9246,7 @@
       </c>
       <c r="L186" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -9087,7 +9268,7 @@
       </c>
       <c r="L187" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -9109,7 +9290,7 @@
       </c>
       <c r="L188" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -9131,7 +9312,7 @@
       </c>
       <c r="L189" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -9153,7 +9334,7 @@
       </c>
       <c r="L190" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -9175,7 +9356,7 @@
       </c>
       <c r="L191" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -9197,7 +9378,7 @@
       </c>
       <c r="L192" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
@@ -9219,7 +9400,7 @@
       </c>
       <c r="L193" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
@@ -9241,7 +9422,7 @@
       </c>
       <c r="L194" s="4" t="str">
         <f t="shared" ref="L194:L257" si="13">CONCATENATE("|if(",K194,")","| ",G194,".",D194," = ",F194,".",B194,";")</f>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -9263,7 +9444,7 @@
       </c>
       <c r="L195" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
@@ -9285,7 +9466,7 @@
       </c>
       <c r="L196" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
@@ -9307,7 +9488,7 @@
       </c>
       <c r="L197" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
@@ -9329,7 +9510,7 @@
       </c>
       <c r="L198" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -9351,7 +9532,7 @@
       </c>
       <c r="L199" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
@@ -9373,7 +9554,7 @@
       </c>
       <c r="L200" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
@@ -9395,7 +9576,7 @@
       </c>
       <c r="L201" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
@@ -9417,7 +9598,7 @@
       </c>
       <c r="L202" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
@@ -9439,7 +9620,7 @@
       </c>
       <c r="L203" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -9461,7 +9642,7 @@
       </c>
       <c r="L204" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
@@ -9483,7 +9664,7 @@
       </c>
       <c r="L205" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -9505,7 +9686,7 @@
       </c>
       <c r="L206" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
@@ -9527,7 +9708,7 @@
       </c>
       <c r="L207" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
@@ -9549,7 +9730,7 @@
       </c>
       <c r="L208" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
@@ -9571,7 +9752,7 @@
       </c>
       <c r="L209" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
@@ -9593,7 +9774,7 @@
       </c>
       <c r="L210" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
@@ -9615,7 +9796,7 @@
       </c>
       <c r="L211" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
@@ -9637,7 +9818,7 @@
       </c>
       <c r="L212" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
@@ -9659,7 +9840,7 @@
       </c>
       <c r="L213" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
@@ -9681,7 +9862,7 @@
       </c>
       <c r="L214" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
@@ -9703,7 +9884,7 @@
       </c>
       <c r="L215" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
@@ -9725,7 +9906,7 @@
       </c>
       <c r="L216" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -9747,7 +9928,7 @@
       </c>
       <c r="L217" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
@@ -9769,7 +9950,7 @@
       </c>
       <c r="L218" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
@@ -9791,7 +9972,7 @@
       </c>
       <c r="L219" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
@@ -9813,7 +9994,7 @@
       </c>
       <c r="L220" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
@@ -9835,7 +10016,7 @@
       </c>
       <c r="L221" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
@@ -9857,7 +10038,7 @@
       </c>
       <c r="L222" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
@@ -9879,7 +10060,7 @@
       </c>
       <c r="L223" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
@@ -9901,7 +10082,7 @@
       </c>
       <c r="L224" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -9923,7 +10104,7 @@
       </c>
       <c r="L225" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
@@ -9945,7 +10126,7 @@
       </c>
       <c r="L226" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
@@ -9967,7 +10148,7 @@
       </c>
       <c r="L227" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
@@ -9989,7 +10170,7 @@
       </c>
       <c r="L228" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -10011,7 +10192,7 @@
       </c>
       <c r="L229" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
@@ -10033,7 +10214,7 @@
       </c>
       <c r="L230" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -10055,7 +10236,7 @@
       </c>
       <c r="L231" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
@@ -10077,7 +10258,7 @@
       </c>
       <c r="L232" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -10099,7 +10280,7 @@
       </c>
       <c r="L233" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -10121,7 +10302,7 @@
       </c>
       <c r="L234" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -10143,7 +10324,7 @@
       </c>
       <c r="L235" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -10165,7 +10346,7 @@
       </c>
       <c r="L236" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -10187,7 +10368,7 @@
       </c>
       <c r="L237" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -10209,7 +10390,7 @@
       </c>
       <c r="L238" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
@@ -10231,7 +10412,7 @@
       </c>
       <c r="L239" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
@@ -10253,7 +10434,7 @@
       </c>
       <c r="L240" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
@@ -10275,7 +10456,7 @@
       </c>
       <c r="L241" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -10297,7 +10478,7 @@
       </c>
       <c r="L242" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
@@ -10319,7 +10500,7 @@
       </c>
       <c r="L243" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
@@ -10341,7 +10522,7 @@
       </c>
       <c r="L244" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
@@ -10363,7 +10544,7 @@
       </c>
       <c r="L245" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
@@ -10385,7 +10566,7 @@
       </c>
       <c r="L246" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -10407,7 +10588,7 @@
       </c>
       <c r="L247" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
@@ -10429,7 +10610,7 @@
       </c>
       <c r="L248" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
@@ -10451,7 +10632,7 @@
       </c>
       <c r="L249" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
@@ -10473,7 +10654,7 @@
       </c>
       <c r="L250" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
@@ -10495,7 +10676,7 @@
       </c>
       <c r="L251" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -10517,7 +10698,7 @@
       </c>
       <c r="L252" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
@@ -10539,7 +10720,7 @@
       </c>
       <c r="L253" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
@@ -10561,7 +10742,7 @@
       </c>
       <c r="L254" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
@@ -10583,7 +10764,7 @@
       </c>
       <c r="L255" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
@@ -10605,7 +10786,7 @@
       </c>
       <c r="L256" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -10627,7 +10808,7 @@
       </c>
       <c r="L257" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
@@ -10649,7 +10830,7 @@
       </c>
       <c r="L258" s="4" t="str">
         <f t="shared" ref="L258:L321" si="16">CONCATENATE("|if(",K258,")","| ",G258,".",D258," = ",F258,".",B258,";")</f>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
@@ -10671,7 +10852,7 @@
       </c>
       <c r="L259" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
@@ -10693,7 +10874,7 @@
       </c>
       <c r="L260" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
@@ -10715,7 +10896,7 @@
       </c>
       <c r="L261" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
@@ -10737,7 +10918,7 @@
       </c>
       <c r="L262" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
@@ -10759,7 +10940,7 @@
       </c>
       <c r="L263" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
@@ -10781,7 +10962,7 @@
       </c>
       <c r="L264" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -10803,7 +10984,7 @@
       </c>
       <c r="L265" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
@@ -10825,7 +11006,7 @@
       </c>
       <c r="L266" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
@@ -10847,7 +11028,7 @@
       </c>
       <c r="L267" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -10869,7 +11050,7 @@
       </c>
       <c r="L268" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
@@ -10891,7 +11072,7 @@
       </c>
       <c r="L269" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
@@ -10913,7 +11094,7 @@
       </c>
       <c r="L270" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
@@ -10935,7 +11116,7 @@
       </c>
       <c r="L271" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
@@ -10957,7 +11138,7 @@
       </c>
       <c r="L272" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
@@ -10979,7 +11160,7 @@
       </c>
       <c r="L273" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
@@ -11001,7 +11182,7 @@
       </c>
       <c r="L274" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
@@ -11023,7 +11204,7 @@
       </c>
       <c r="L275" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
@@ -11045,7 +11226,7 @@
       </c>
       <c r="L276" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
@@ -11067,7 +11248,7 @@
       </c>
       <c r="L277" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
@@ -11089,7 +11270,7 @@
       </c>
       <c r="L278" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
@@ -11111,7 +11292,7 @@
       </c>
       <c r="L279" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
@@ -11133,7 +11314,7 @@
       </c>
       <c r="L280" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
@@ -11155,7 +11336,7 @@
       </c>
       <c r="L281" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
@@ -11177,7 +11358,7 @@
       </c>
       <c r="L282" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
@@ -11199,7 +11380,7 @@
       </c>
       <c r="L283" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
@@ -11221,7 +11402,7 @@
       </c>
       <c r="L284" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
@@ -11243,7 +11424,7 @@
       </c>
       <c r="L285" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
@@ -11265,7 +11446,7 @@
       </c>
       <c r="L286" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
@@ -11287,7 +11468,7 @@
       </c>
       <c r="L287" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
@@ -11309,7 +11490,7 @@
       </c>
       <c r="L288" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
@@ -11331,7 +11512,7 @@
       </c>
       <c r="L289" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
@@ -11353,7 +11534,7 @@
       </c>
       <c r="L290" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
@@ -11375,7 +11556,7 @@
       </c>
       <c r="L291" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
@@ -11397,7 +11578,7 @@
       </c>
       <c r="L292" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
@@ -11419,7 +11600,7 @@
       </c>
       <c r="L293" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
@@ -11441,7 +11622,7 @@
       </c>
       <c r="L294" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
@@ -11463,7 +11644,7 @@
       </c>
       <c r="L295" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
@@ -11485,7 +11666,7 @@
       </c>
       <c r="L296" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
@@ -11507,7 +11688,7 @@
       </c>
       <c r="L297" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
@@ -11529,7 +11710,7 @@
       </c>
       <c r="L298" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
@@ -11551,7 +11732,7 @@
       </c>
       <c r="L299" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
@@ -11573,7 +11754,7 @@
       </c>
       <c r="L300" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
@@ -11595,7 +11776,7 @@
       </c>
       <c r="L301" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
@@ -11617,7 +11798,7 @@
       </c>
       <c r="L302" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
@@ -11639,7 +11820,7 @@
       </c>
       <c r="L303" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
@@ -11661,7 +11842,7 @@
       </c>
       <c r="L304" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
@@ -11683,7 +11864,7 @@
       </c>
       <c r="L305" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
@@ -11705,7 +11886,7 @@
       </c>
       <c r="L306" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
@@ -11727,7 +11908,7 @@
       </c>
       <c r="L307" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
@@ -11749,7 +11930,7 @@
       </c>
       <c r="L308" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
@@ -11771,7 +11952,7 @@
       </c>
       <c r="L309" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
@@ -11793,7 +11974,7 @@
       </c>
       <c r="L310" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
@@ -11815,7 +11996,7 @@
       </c>
       <c r="L311" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
@@ -11837,7 +12018,7 @@
       </c>
       <c r="L312" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
@@ -11859,7 +12040,7 @@
       </c>
       <c r="L313" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
@@ -11881,7 +12062,7 @@
       </c>
       <c r="L314" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
@@ -11903,7 +12084,7 @@
       </c>
       <c r="L315" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
@@ -11925,7 +12106,7 @@
       </c>
       <c r="L316" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
@@ -11947,7 +12128,7 @@
       </c>
       <c r="L317" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
@@ -11969,7 +12150,7 @@
       </c>
       <c r="L318" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
@@ -11991,7 +12172,7 @@
       </c>
       <c r="L319" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
@@ -12013,7 +12194,7 @@
       </c>
       <c r="L320" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
@@ -12035,7 +12216,7 @@
       </c>
       <c r="L321" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
@@ -12048,7 +12229,7 @@
       <c r="H322" s="5"/>
       <c r="I322" s="5"/>
       <c r="J322" s="4" t="str">
-        <f t="shared" ref="J322:J385" si="17">CONCATENATE("|if(",I322,")","| ",F322,".",B322," = ",G322,".",D322,";")</f>
+        <f t="shared" ref="J322:J362" si="17">CONCATENATE("|if(",I322,")","| ",F322,".",B322," = ",G322,".",D322,";")</f>
         <v>|if()| . = .;</v>
       </c>
       <c r="K322" s="4" t="b">
@@ -12056,8 +12237,8 @@
         <v>0</v>
       </c>
       <c r="L322" s="4" t="str">
-        <f t="shared" ref="L322:L385" si="19">CONCATENATE("|if(",K322,")","| ",G322,".",D322," = ",F322,".",B322,";")</f>
-        <v>|if(FALSE)| . = .;</v>
+        <f t="shared" ref="L322:L362" si="19">CONCATENATE("|if(",K322,")","| ",G322,".",D322," = ",F322,".",B322,";")</f>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
@@ -12079,7 +12260,7 @@
       </c>
       <c r="L323" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
@@ -12101,7 +12282,7 @@
       </c>
       <c r="L324" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
@@ -12123,7 +12304,7 @@
       </c>
       <c r="L325" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
@@ -12145,7 +12326,7 @@
       </c>
       <c r="L326" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
@@ -12167,7 +12348,7 @@
       </c>
       <c r="L327" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
@@ -12189,7 +12370,7 @@
       </c>
       <c r="L328" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
@@ -12211,7 +12392,7 @@
       </c>
       <c r="L329" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
@@ -12233,7 +12414,7 @@
       </c>
       <c r="L330" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
@@ -12255,7 +12436,7 @@
       </c>
       <c r="L331" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
@@ -12277,7 +12458,7 @@
       </c>
       <c r="L332" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
@@ -12299,7 +12480,7 @@
       </c>
       <c r="L333" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
@@ -12321,7 +12502,7 @@
       </c>
       <c r="L334" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
@@ -12343,7 +12524,7 @@
       </c>
       <c r="L335" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
@@ -12365,7 +12546,7 @@
       </c>
       <c r="L336" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
@@ -12387,7 +12568,7 @@
       </c>
       <c r="L337" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
@@ -12409,7 +12590,7 @@
       </c>
       <c r="L338" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
@@ -12431,7 +12612,7 @@
       </c>
       <c r="L339" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
@@ -12453,7 +12634,7 @@
       </c>
       <c r="L340" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
@@ -12475,7 +12656,7 @@
       </c>
       <c r="L341" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
@@ -12497,7 +12678,7 @@
       </c>
       <c r="L342" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
@@ -12519,7 +12700,7 @@
       </c>
       <c r="L343" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
@@ -12541,7 +12722,7 @@
       </c>
       <c r="L344" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
@@ -12563,7 +12744,7 @@
       </c>
       <c r="L345" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
@@ -12585,7 +12766,7 @@
       </c>
       <c r="L346" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
@@ -12607,7 +12788,7 @@
       </c>
       <c r="L347" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
@@ -12629,7 +12810,7 @@
       </c>
       <c r="L348" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
@@ -12651,7 +12832,7 @@
       </c>
       <c r="L349" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
@@ -12673,7 +12854,7 @@
       </c>
       <c r="L350" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
@@ -12695,7 +12876,7 @@
       </c>
       <c r="L351" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
@@ -12717,7 +12898,7 @@
       </c>
       <c r="L352" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
@@ -12739,7 +12920,7 @@
       </c>
       <c r="L353" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
@@ -12761,7 +12942,7 @@
       </c>
       <c r="L354" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
@@ -12783,7 +12964,7 @@
       </c>
       <c r="L355" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
@@ -12805,7 +12986,7 @@
       </c>
       <c r="L356" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
@@ -12827,7 +13008,7 @@
       </c>
       <c r="L357" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
@@ -12849,7 +13030,7 @@
       </c>
       <c r="L358" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
@@ -12871,7 +13052,7 @@
       </c>
       <c r="L359" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
@@ -12893,7 +13074,7 @@
       </c>
       <c r="L360" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
@@ -12915,7 +13096,7 @@
       </c>
       <c r="L361" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
@@ -12937,7 +13118,7 @@
       </c>
       <c r="L362" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
@@ -12988,7 +13169,7 @@
       </c>
       <c r="L366" s="4" t="str">
         <f t="shared" ref="L366:L389" si="21">CONCATENATE("|if(",K366,")","| ",G366,".",D366," = ",F366,".",B366,";")</f>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
@@ -13010,7 +13191,7 @@
       </c>
       <c r="L367" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
@@ -13032,7 +13213,7 @@
       </c>
       <c r="L368" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
@@ -13054,7 +13235,7 @@
       </c>
       <c r="L369" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
@@ -13076,7 +13257,7 @@
       </c>
       <c r="L370" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
@@ -13098,7 +13279,7 @@
       </c>
       <c r="L371" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
@@ -13120,7 +13301,7 @@
       </c>
       <c r="L372" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
@@ -13142,7 +13323,7 @@
       </c>
       <c r="L373" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
@@ -13164,7 +13345,7 @@
       </c>
       <c r="L374" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
@@ -13186,7 +13367,7 @@
       </c>
       <c r="L375" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
@@ -13208,7 +13389,7 @@
       </c>
       <c r="L376" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
@@ -13230,7 +13411,7 @@
       </c>
       <c r="L377" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
@@ -13252,7 +13433,7 @@
       </c>
       <c r="L378" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
@@ -13274,7 +13455,7 @@
       </c>
       <c r="L379" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
@@ -13296,7 +13477,7 @@
       </c>
       <c r="L380" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
@@ -13318,7 +13499,7 @@
       </c>
       <c r="L381" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
@@ -13340,7 +13521,7 @@
       </c>
       <c r="L382" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
@@ -13362,7 +13543,7 @@
       </c>
       <c r="L383" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
@@ -13384,7 +13565,7 @@
       </c>
       <c r="L384" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.25">
@@ -13406,7 +13587,7 @@
       </c>
       <c r="L385" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
@@ -13428,7 +13609,7 @@
       </c>
       <c r="L386" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
@@ -13450,7 +13631,7 @@
       </c>
       <c r="L387" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.25">
@@ -13472,7 +13653,7 @@
       </c>
       <c r="L388" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
@@ -13494,7 +13675,7 @@
       </c>
       <c r="L389" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(FALSO)| . = .;</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">

--- a/documentos/Gerador de código Base Corporativa.xlsx
+++ b/documentos/Gerador de código Base Corporativa.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="327">
   <si>
     <t>string</t>
   </si>
@@ -155,18 +155,6 @@
     <t>TIP_PRODUTO</t>
   </si>
   <si>
-    <t>IDC_BDV</t>
-  </si>
-  <si>
-    <t>IDC_CPN</t>
-  </si>
-  <si>
-    <t>COD_PRODCARM</t>
-  </si>
-  <si>
-    <t>DES_PRODCARM</t>
-  </si>
-  <si>
     <t>Código da Empresa Sisbacen</t>
   </si>
   <si>
@@ -188,18 +176,6 @@
     <t>Tipo de produto</t>
   </si>
   <si>
-    <t>Indicador de BDV</t>
-  </si>
-  <si>
-    <t>Cross Product Netting</t>
-  </si>
-  <si>
-    <t>Código Produto CARM</t>
-  </si>
-  <si>
-    <t>Descrição Produto CARM</t>
-  </si>
-  <si>
     <t>codigoProduto</t>
   </si>
   <si>
@@ -218,18 +194,6 @@
     <t>tipoProduto</t>
   </si>
   <si>
-    <t>indicadorBdv</t>
-  </si>
-  <si>
-    <t>indicadorCpn</t>
-  </si>
-  <si>
-    <t>codigoProdutoCARM</t>
-  </si>
-  <si>
-    <t>descricaoProdutoCARM</t>
-  </si>
-  <si>
     <t>TB_OPERADOR</t>
   </si>
   <si>
@@ -515,18 +479,6 @@
     <t>DES_GRPEMP</t>
   </si>
   <si>
-    <t>GRPCODCRK</t>
-  </si>
-  <si>
-    <t>GRPIDCLDRBR</t>
-  </si>
-  <si>
-    <t>GRPCODCNPJLDRBR</t>
-  </si>
-  <si>
-    <t>NACCOD</t>
-  </si>
-  <si>
     <t>Código do Grupo Empresarial</t>
   </si>
   <si>
@@ -536,15 +488,6 @@
     <t>Nome do Grupo Empresarial</t>
   </si>
   <si>
-    <t>Identifica se a empresa líder é brasileira</t>
-  </si>
-  <si>
-    <t>CNPJ da empresa líder</t>
-  </si>
-  <si>
-    <t>Código da Nascionalidade</t>
-  </si>
-  <si>
     <t>codigoGrupoEmpresarial</t>
   </si>
   <si>
@@ -557,15 +500,6 @@
     <t>codigoEmpresaSisbacen</t>
   </si>
   <si>
-    <t>identificaEmpresaLiderBrasileira</t>
-  </si>
-  <si>
-    <t>cnpjEmpresaLider</t>
-  </si>
-  <si>
-    <t>codigoNascionalidade</t>
-  </si>
-  <si>
     <t>cod_empresa</t>
   </si>
   <si>
@@ -1071,6 +1005,15 @@
   </si>
   <si>
     <t>oper_cod</t>
+  </si>
+  <si>
+    <t>cod_grpemp</t>
+  </si>
+  <si>
+    <t>abv_grpemp</t>
+  </si>
+  <si>
+    <t>des_grpemp</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1057,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1122,11 +1065,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1150,6 +1108,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1464,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L438"/>
+  <dimension ref="A1:L434"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,10 +1472,10 @@
         <v>22</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>5</v>
@@ -1531,13 +1496,13 @@
         <v>22</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>10</v>
@@ -1555,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>10</v>
@@ -1579,13 +1544,13 @@
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>0</v>
@@ -1603,13 +1568,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>0</v>
@@ -1627,13 +1592,13 @@
         <v>22</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>0</v>
@@ -1651,13 +1616,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>0</v>
@@ -1675,13 +1640,13 @@
         <v>22</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>0</v>
@@ -1699,13 +1664,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>0</v>
@@ -1723,13 +1688,13 @@
         <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>0</v>
@@ -1747,13 +1712,13 @@
         <v>22</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>0</v>
@@ -1771,13 +1736,13 @@
         <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>0</v>
@@ -1795,13 +1760,13 @@
         <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>0</v>
@@ -1819,13 +1784,13 @@
         <v>22</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>0</v>
@@ -1843,13 +1808,13 @@
         <v>22</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>0</v>
@@ -1867,13 +1832,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>0</v>
@@ -1891,13 +1856,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>0</v>
@@ -1915,13 +1880,13 @@
         <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>0</v>
@@ -1939,13 +1904,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>0</v>
@@ -1963,13 +1928,13 @@
         <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>0</v>
@@ -1987,13 +1952,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>0</v>
@@ -2011,13 +1976,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>0</v>
@@ -2035,13 +2000,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>0</v>
@@ -2059,13 +2024,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>0</v>
@@ -2083,13 +2048,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>0</v>
@@ -2107,13 +2072,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>0</v>
@@ -2131,13 +2096,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>0</v>
@@ -2155,13 +2120,13 @@
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>0</v>
@@ -2179,13 +2144,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>0</v>
@@ -2200,13 +2165,13 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>0</v>
@@ -2221,13 +2186,13 @@
         <v>22</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>0</v>
@@ -2242,16 +2207,16 @@
         <v>22</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="F33" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2263,13 +2228,13 @@
         <v>22</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>0</v>
@@ -2284,13 +2249,13 @@
         <v>22</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>0</v>
@@ -2305,13 +2270,13 @@
         <v>22</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>10</v>
@@ -2326,13 +2291,13 @@
         <v>22</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>10</v>
@@ -2347,13 +2312,13 @@
         <v>22</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>10</v>
@@ -2368,13 +2333,13 @@
         <v>22</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>10</v>
@@ -2389,13 +2354,13 @@
         <v>22</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>10</v>
@@ -2410,13 +2375,13 @@
         <v>22</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>10</v>
@@ -2431,13 +2396,13 @@
         <v>22</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>10</v>
@@ -2452,13 +2417,13 @@
         <v>22</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>10</v>
@@ -2473,13 +2438,13 @@
         <v>22</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>10</v>
@@ -2494,13 +2459,13 @@
         <v>22</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>10</v>
@@ -2515,13 +2480,13 @@
         <v>22</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>10</v>
@@ -2536,16 +2501,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="F47" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2557,16 +2522,16 @@
         <v>22</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="F48" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2578,7 +2543,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>17</v>
@@ -2587,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="F49" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2599,10 +2564,10 @@
         <v>22</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>7</v>
@@ -2620,16 +2585,16 @@
         <v>22</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="F51" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2641,10 +2606,10 @@
         <v>22</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>8</v>
@@ -2662,7 +2627,7 @@
         <v>22</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>24</v>
@@ -2683,7 +2648,7 @@
         <v>22</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>25</v>
@@ -2704,7 +2669,7 @@
         <v>22</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>26</v>
@@ -2725,7 +2690,7 @@
         <v>22</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>27</v>
@@ -2746,7 +2711,7 @@
         <v>22</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>18</v>
@@ -2770,7 +2735,7 @@
         <v>33</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>5</v>
@@ -2779,7 +2744,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="4" t="str">
-        <f t="shared" ref="F58:F109" si="1">CONCATENATE("|/// &lt;summary&gt;|/// ",C58,"|/// &lt;/summary&gt;| public ",E58," ",D58," { get; set; }")</f>
+        <f t="shared" ref="F58:F101" si="1">CONCATENATE("|/// &lt;summary&gt;|/// ",C58,"|/// &lt;/summary&gt;| public ",E58," ",D58," { get; set; }")</f>
         <v>|/// &lt;summary&gt;|/// Código da Empresa Sisbacen|/// &lt;/summary&gt;| public int codigoEmpresa { get; set; }</v>
       </c>
     </row>
@@ -2791,10 +2756,10 @@
         <v>34</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>10</v>
@@ -2812,10 +2777,10 @@
         <v>35</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>0</v>
@@ -2833,10 +2798,10 @@
         <v>36</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>0</v>
@@ -2854,10 +2819,10 @@
         <v>37</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>10</v>
@@ -2875,10 +2840,10 @@
         <v>38</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>0</v>
@@ -2896,10 +2861,10 @@
         <v>39</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>0</v>
@@ -2911,943 +2876,839 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F65" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Indicador de BDV|/// &lt;/summary&gt;| public string indicadorBdv { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Código Empresa Sisbacen|/// &lt;/summary&gt;| public int codigoSisbacen { get; set; }</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F66" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Cross Product Netting|/// &lt;/summary&gt;| public string indicadorCpn { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// cod_funcionário|/// &lt;/summary&gt;| public int codigoFuncionario { get; set; }</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Código Produto CARM|/// &lt;/summary&gt;| public int codigoProdutoCARM { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Código Dependência Sisbacen|/// &lt;/summary&gt;| public int codigoDependenciaSisbacen { get; set; }</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F68" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Descrição Produto CARM|/// &lt;/summary&gt;| public string descricaoProdutoCARM { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// nome_funcionário|/// &lt;/summary&gt;| public string nomeFuncionario { get; set; }</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F69" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Código Empresa Sisbacen|/// &lt;/summary&gt;| public int codigoSisbacen { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// nome_abreviado_funcionário|/// &lt;/summary&gt;| public string nomeAbreviadoFuncionario { get; set; }</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F70" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// cod_funcionário|/// &lt;/summary&gt;| public int codigoFuncionario { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// identificador_funcionário|/// &lt;/summary&gt;| public string identificadorFuncionario { get; set; }</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F71" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Código Dependência Sisbacen|/// &lt;/summary&gt;| public int codigoDependenciaSisbacen { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// login_funcionário|/// &lt;/summary&gt;| public string loginFuncionario { get; set; }</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F72" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// nome_funcionário|/// &lt;/summary&gt;| public string nomeFuncionario { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// tipo_funcionário|/// &lt;/summary&gt;| public string tipoFuncionario { get; set; }</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F73" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// nome_abreviado_funcionário|/// &lt;/summary&gt;| public string nomeAbreviadoFuncionario { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Data de cadastramento|/// &lt;/summary&gt;| public DateTime dataCadastro { get; set; }</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F74" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// identificador_funcionário|/// &lt;/summary&gt;| public string identificadorFuncionario { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Código do usuário da atualização|/// &lt;/summary&gt;| public string usuarioUltimaAtualizacao { get; set; }</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F75" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// login_funcionário|/// &lt;/summary&gt;| public string loginFuncionario { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Data de atualização|/// &lt;/summary&gt;| public DateTime dataUltimaAtualizacao { get; set; }</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F76" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// tipo_funcionário|/// &lt;/summary&gt;| public string tipoFuncionario { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// data_situaçao|/// &lt;/summary&gt;| public DateTime dataSituacao { get; set; }</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F77" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Data de cadastramento|/// &lt;/summary&gt;| public DateTime dataCadastro { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// indicador_situação|/// &lt;/summary&gt;| public string indicadorSituacao { get; set; }</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="C78" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F78" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Código do usuário da atualização|/// &lt;/summary&gt;| public string usuarioUltimaAtualizacao { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Código do cargo do Funcionário|/// &lt;/summary&gt;| public int codigoCargoFuncionario { get; set; }</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F79" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Data de atualização|/// &lt;/summary&gt;| public DateTime dataUltimaAtualizacao { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// CPF do operador|/// &lt;/summary&gt;| public string cpfOperador { get; set; }</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F80" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// data_situaçao|/// &lt;/summary&gt;| public DateTime dataSituacao { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Digito do Operador|/// &lt;/summary&gt;| public string digitoOperador { get; set; }</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F81" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// indicador_situação|/// &lt;/summary&gt;| public string indicadorSituacao { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Sexo do Operador|/// &lt;/summary&gt;| public string sexoOperador { get; set; }</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F82" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Código do cargo do Funcionário|/// &lt;/summary&gt;| public int codigoCargoFuncionario { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// DDD do Operador|/// &lt;/summary&gt;| public string dddOperador { get; set; }</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F83" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// CPF do operador|/// &lt;/summary&gt;| public string cpfOperador { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Telefone do Operador|/// &lt;/summary&gt;| public string telefoneOperador { get; set; }</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F84" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Digito do Operador|/// &lt;/summary&gt;| public string digitoOperador { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Ramal do Operador|/// &lt;/summary&gt;| public string ramalOperador { get; set; }</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F85" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Sexo do Operador|/// &lt;/summary&gt;| public string sexoOperador { get; set; }</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>|/// &lt;summary&gt;|/// Email do Operador|/// &lt;/summary&gt;| public string emailOperador { get; set; }</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F86" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// DDD do Operador|/// &lt;/summary&gt;| public string dddOperador { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Código do gerente no sistema de origem|/// &lt;/summary&gt;| public int codigoGerenteOrigem { get; set; }</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F87" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Telefone do Operador|/// &lt;/summary&gt;| public string telefoneOperador { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Código CRK|/// &lt;/summary&gt;| public string codigoCRK { get; set; }</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F88" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Ramal do Operador|/// &lt;/summary&gt;| public string ramalOperador { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// data_inicio_operação_gerente|/// &lt;/summary&gt;| public DateTime dataInicioOperacao { get; set; }</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F89" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Email do Operador|/// &lt;/summary&gt;| public string emailOperador { get; set; }</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>|/// &lt;summary&gt;|/// tipo_gerente|/// &lt;/summary&gt;| public string tipoGerente { get; set; }</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F90" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Código do gerente no sistema de origem|/// &lt;/summary&gt;| public int codigoGerenteOrigem { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// situação_gerente|/// &lt;/summary&gt;| public string situacaoGerente { get; set; }</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F91" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Código CRK|/// &lt;/summary&gt;| public string codigoCRK { get; set; }</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>|/// &lt;summary&gt;|/// data_fim_operação_gerente|/// &lt;/summary&gt;| public DateTime dataFimOperacao { get; set; }</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F92" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// data_inicio_operação_gerente|/// &lt;/summary&gt;| public DateTime dataInicioOperacao { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Indica se o gerente deve receber email de clientes com cadastro vencido|/// &lt;/summary&gt;| public string indicadorRecebCadVencido { get; set; }</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F93" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// tipo_gerente|/// &lt;/summary&gt;| public string tipoGerente { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Código da Empresa|/// &lt;/summary&gt;| public int codigoEmpresa { get; set; }</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F94" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// situação_gerente|/// &lt;/summary&gt;| public string situacaoGerente { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Código da dependencia|/// &lt;/summary&gt;| public int codigoDependencia { get; set; }</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F95" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// data_fim_operação_gerente|/// &lt;/summary&gt;| public DateTime dataFimOperacao { get; set; }</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F96" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Indica se o gerente deve receber email de clientes com cadastro vencido|/// &lt;/summary&gt;| public string indicadorRecebCadVencido { get; set; }</v>
-      </c>
+        <v>|/// &lt;summary&gt;|/// Código do Operador|/// &lt;/summary&gt;| public int codigoOperador { get; set; }</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="4"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E97" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E97" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F97" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Código da Empresa|/// &lt;/summary&gt;| public int codigoEmpresa { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Código do Grupo Empresarial|/// &lt;/summary&gt;| public int codigoGrupoEmpresarial { get; set; }</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>10</v>
+        <v>149</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="F98" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Código da dependencia|/// &lt;/summary&gt;| public int codigoDependencia { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Nome abreviado do Grupo Empresarial|/// &lt;/summary&gt;| public string nomeAbreviadoGrupoEmpresarial { get; set; }</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>10</v>
+        <v>150</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="F99" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Código do Operador|/// &lt;/summary&gt;| public int codigoOperador { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Nome do Grupo Empresarial|/// &lt;/summary&gt;| public string nomedoGrupoEmpresarial { get; set; }</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="4"/>
+      <c r="A100" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>|/// &lt;summary&gt;|/// Código Empresa Sisbacen|/// &lt;/summary&gt;| public int codigoEmpresaSisbacen { get; set; }</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F101" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Código do Grupo Empresarial|/// &lt;/summary&gt;| public int codigoGrupoEmpresarial { get; set; }</v>
+        <v>|/// &lt;summary&gt;|/// Código Dependência Sisbacen|/// &lt;/summary&gt;| public int codigoDependenciaSisbacen { get; set; }</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F102" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Nome abreviado do Grupo Empresarial|/// &lt;/summary&gt;| public string nomeAbreviadoGrupoEmpresarial { get; set; }</v>
-      </c>
+      <c r="A102" s="7"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="4"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F103" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Nome do Grupo Empresarial|/// &lt;/summary&gt;| public string nomedoGrupoEmpresarial { get; set; }</v>
-      </c>
+      <c r="A103" s="7"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="4"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Código Empresa Sisbacen|/// &lt;/summary&gt;| public int codigoEmpresaSisbacen { get; set; }</v>
-      </c>
+      <c r="A104" s="7"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="4"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Código Dependência Sisbacen|/// &lt;/summary&gt;| public int codigoDependenciaSisbacen { get; set; }</v>
-      </c>
+      <c r="A105" s="7"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="4"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F106" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Código CRK|/// &lt;/summary&gt;| public string codigoCRK { get; set; }</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F107" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Identifica se a empresa líder é brasileira|/// &lt;/summary&gt;| public string identificaEmpresaLiderBrasileira { get; set; }</v>
-      </c>
+      <c r="A106" s="7"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="7"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F108" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// CNPJ da empresa líder|/// &lt;/summary&gt;| public string cnpjEmpresaLider { get; set; }</v>
-      </c>
+      <c r="A108" s="7"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>|/// &lt;summary&gt;|/// Código da Nascionalidade|/// &lt;/summary&gt;| public int codigoNascionalidade { get; set; }</v>
-      </c>
+      <c r="A109" s="7"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
+      <c r="A110" s="7"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
@@ -6434,39 +6295,7 @@
       <c r="F433" s="5"/>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="5"/>
-      <c r="B434" s="5"/>
-      <c r="C434" s="5"/>
-      <c r="D434" s="5"/>
-      <c r="E434" s="5"/>
-      <c r="F434" s="5"/>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A435" s="5"/>
-      <c r="B435" s="5"/>
-      <c r="C435" s="5"/>
-      <c r="D435" s="5"/>
-      <c r="E435" s="5"/>
-      <c r="F435" s="5"/>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A436" s="5"/>
-      <c r="B436" s="5"/>
-      <c r="C436" s="5"/>
-      <c r="D436" s="5"/>
-      <c r="E436" s="5"/>
-      <c r="F436" s="5"/>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A437" s="5"/>
-      <c r="B437" s="5"/>
-      <c r="C437" s="5"/>
-      <c r="D437" s="5"/>
-      <c r="E437" s="5"/>
-      <c r="F437" s="5"/>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438" s="4"/>
+      <c r="A434" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6476,10 +6305,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L441"/>
+  <dimension ref="A1:L437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96:H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6487,7 +6316,7 @@
     <col min="1" max="1" width="23.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="26.140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="44" style="4" bestFit="1" customWidth="1"/>
@@ -6521,19 +6350,19 @@
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -6541,10 +6370,10 @@
         <v>22</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>5</v>
@@ -6553,7 +6382,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>14</v>
@@ -6584,19 +6413,19 @@
         <v>22</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>14</v>
@@ -6627,19 +6456,19 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>14</v>
@@ -6670,19 +6499,19 @@
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>14</v>
@@ -6713,19 +6542,19 @@
         <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>14</v>
@@ -6756,19 +6585,19 @@
         <v>22</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>14</v>
@@ -6799,19 +6628,19 @@
         <v>22</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>14</v>
@@ -6842,19 +6671,19 @@
         <v>22</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>14</v>
@@ -6885,19 +6714,19 @@
         <v>22</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>14</v>
@@ -6928,19 +6757,19 @@
         <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>14</v>
@@ -6971,19 +6800,19 @@
         <v>22</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>14</v>
@@ -7014,19 +6843,19 @@
         <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>14</v>
@@ -7057,19 +6886,19 @@
         <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>14</v>
@@ -7100,19 +6929,19 @@
         <v>22</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>14</v>
@@ -7143,19 +6972,19 @@
         <v>22</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>14</v>
@@ -7186,19 +7015,19 @@
         <v>22</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>14</v>
@@ -7229,19 +7058,19 @@
         <v>22</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>14</v>
@@ -7272,19 +7101,19 @@
         <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>14</v>
@@ -7315,19 +7144,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>14</v>
@@ -7358,19 +7187,19 @@
         <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>14</v>
@@ -7401,19 +7230,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>14</v>
@@ -7444,19 +7273,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>14</v>
@@ -7487,19 +7316,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>14</v>
@@ -7530,19 +7359,19 @@
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>14</v>
@@ -7573,19 +7402,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>14</v>
@@ -7616,19 +7445,19 @@
         <v>22</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>14</v>
@@ -7659,19 +7488,19 @@
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>14</v>
@@ -7702,19 +7531,19 @@
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>14</v>
@@ -7745,19 +7574,19 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>14</v>
@@ -7788,19 +7617,19 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>14</v>
@@ -7831,19 +7660,19 @@
         <v>22</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>14</v>
@@ -7874,19 +7703,19 @@
         <v>22</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>14</v>
@@ -7917,19 +7746,19 @@
         <v>22</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>14</v>
@@ -7960,19 +7789,19 @@
         <v>22</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>14</v>
@@ -8003,19 +7832,19 @@
         <v>22</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>14</v>
@@ -8046,19 +7875,19 @@
         <v>22</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>14</v>
@@ -8089,19 +7918,19 @@
         <v>22</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>14</v>
@@ -8132,19 +7961,19 @@
         <v>22</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>14</v>
@@ -8175,19 +8004,19 @@
         <v>22</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>14</v>
@@ -8218,19 +8047,19 @@
         <v>22</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>14</v>
@@ -8261,19 +8090,19 @@
         <v>22</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>14</v>
@@ -8304,19 +8133,19 @@
         <v>22</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>14</v>
@@ -8347,19 +8176,19 @@
         <v>22</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>14</v>
@@ -8390,19 +8219,19 @@
         <v>22</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>14</v>
@@ -8433,19 +8262,19 @@
         <v>22</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>14</v>
@@ -8476,19 +8305,19 @@
         <v>22</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>14</v>
@@ -8519,19 +8348,19 @@
         <v>22</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>14</v>
@@ -8562,7 +8391,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>17</v>
@@ -8574,7 +8403,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>14</v>
@@ -8605,10 +8434,10 @@
         <v>22</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>7</v>
@@ -8617,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>14</v>
@@ -8648,19 +8477,19 @@
         <v>22</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>14</v>
@@ -8691,10 +8520,10 @@
         <v>22</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>8</v>
@@ -8703,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>14</v>
@@ -8734,7 +8563,7 @@
         <v>22</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>24</v>
@@ -8746,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>14</v>
@@ -8777,7 +8606,7 @@
         <v>22</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>25</v>
@@ -8789,7 +8618,7 @@
         <v>10</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>14</v>
@@ -8820,7 +8649,7 @@
         <v>22</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>26</v>
@@ -8832,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>14</v>
@@ -8863,7 +8692,7 @@
         <v>22</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>27</v>
@@ -8875,7 +8704,7 @@
         <v>12</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>14</v>
@@ -8906,7 +8735,7 @@
         <v>22</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>18</v>
@@ -8918,7 +8747,7 @@
         <v>12</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>14</v>
@@ -8952,7 +8781,7 @@
         <v>33</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>5</v>
@@ -8961,29 +8790,29 @@
         <v>10</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H58" s="5" t="str">
-        <f t="shared" ref="H58:H99" si="7">CONCATENATE("public ",E58," ",B58,"  { get; set; }")</f>
+        <f t="shared" ref="H58:H100" si="7">CONCATENATE("public ",E58," ",B58,"  { get; set; }")</f>
         <v>public int COD_EMPRESA  { get; set; }</v>
       </c>
       <c r="I58" s="5" t="str">
-        <f t="shared" ref="I58:I99" si="8">IF(E58="string",CONCATENATE("!string.IsNullOrWhiteSpace(",G58,".",D58,")"),IF(E58="int",CONCATENATE(G58,".",D58," != null &amp;&amp; ",G58,".",D58,".Value &gt; 0"),IF(E58="DateTime",CONCATENATE(G58,".",D58," != null &amp;&amp; ",G58,".",D58,".Value != DateTime.MinValue"),IF(E58="decimal",CONCATENATE(G58,".",D58," != null &amp;&amp; ",G58,".",D58,".Value &gt; 0")))))</f>
+        <f t="shared" ref="I58:I100" si="8">IF(E58="string",CONCATENATE("!string.IsNullOrWhiteSpace(",G58,".",D58,")"),IF(E58="int",CONCATENATE(G58,".",D58," != null &amp;&amp; ",G58,".",D58,".Value &gt; 0"),IF(E58="DateTime",CONCATENATE(G58,".",D58," != null &amp;&amp; ",G58,".",D58,".Value != DateTime.MinValue"),IF(E58="decimal",CONCATENATE(G58,".",D58," != null &amp;&amp; ",G58,".",D58,".Value &gt; 0")))))</f>
         <v>msg.codigoEmpresa != null &amp;&amp; msg.codigoEmpresa.Value &gt; 0</v>
       </c>
       <c r="J58" s="5" t="str">
-        <f t="shared" ref="J58:J116" si="9">CONCATENATE("|if(",I58,")","| ",F58,".",B58," = ",G58,".",D58,";")</f>
+        <f t="shared" ref="J58:J112" si="9">CONCATENATE("|if(",I58,")","| ",F58,".",B58," = ",G58,".",D58,";")</f>
         <v>|if(msg.codigoEmpresa != null &amp;&amp; msg.codigoEmpresa.Value &gt; 0)| registro.COD_EMPRESA = msg.codigoEmpresa;</v>
       </c>
       <c r="K58" s="5" t="str">
-        <f t="shared" ref="K58:K116" si="10">IF(E58="string",CONCATENATE("!string.IsNullOrWhiteSpace(",F58,".",B58,")"),IF(E58="int",CONCATENATE(F58,".",B58," != null &amp;&amp; ",F58,".",B58,".Value &gt; 0"),IF(E58="DateTime",CONCATENATE(F58,".",B58," != null &amp;&amp; ",F58,".",B58,".Value != DateTime.MinValue"),IF(E58="decimal",CONCATENATE(F58,".",B58," != null &amp;&amp; ",F58,".",B58,".Value &gt; 0")))))</f>
+        <f t="shared" ref="K58:K112" si="10">IF(E58="string",CONCATENATE("!string.IsNullOrWhiteSpace(",F58,".",B58,")"),IF(E58="int",CONCATENATE(F58,".",B58," != null &amp;&amp; ",F58,".",B58,".Value &gt; 0"),IF(E58="DateTime",CONCATENATE(F58,".",B58," != null &amp;&amp; ",F58,".",B58,".Value != DateTime.MinValue"),IF(E58="decimal",CONCATENATE(F58,".",B58," != null &amp;&amp; ",F58,".",B58,".Value &gt; 0")))))</f>
         <v>registro.COD_EMPRESA != null &amp;&amp; registro.COD_EMPRESA.Value &gt; 0</v>
       </c>
       <c r="L58" s="5" t="str">
-        <f t="shared" ref="L58:L116" si="11">CONCATENATE("|if(",K58,")","| ",G58,".",D58," = ",F58,".",B58,";")</f>
+        <f t="shared" ref="L58:L112" si="11">CONCATENATE("|if(",K58,")","| ",G58,".",D58," = ",F58,".",B58,";")</f>
         <v>|if(registro.COD_EMPRESA != null &amp;&amp; registro.COD_EMPRESA.Value &gt; 0)| msg.codigoEmpresa = registro.COD_EMPRESA;</v>
       </c>
     </row>
@@ -8995,16 +8824,16 @@
         <v>34</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>14</v>
@@ -9038,16 +8867,16 @@
         <v>35</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>14</v>
@@ -9081,16 +8910,16 @@
         <v>36</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>14</v>
@@ -9124,16 +8953,16 @@
         <v>37</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>14</v>
@@ -9167,16 +8996,16 @@
         <v>38</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>14</v>
@@ -9210,16 +9039,16 @@
         <v>39</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>14</v>
@@ -9247,1521 +9076,1550 @@
     </row>
     <row r="65" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H65" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public string IDC_BDV  { get; set; }</v>
+        <v>public int cod_empresa  { get; set; }</v>
       </c>
       <c r="I65" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.indicadorBdv)</v>
+        <v>msg.codigoSisbacen != null &amp;&amp; msg.codigoSisbacen.Value &gt; 0</v>
       </c>
       <c r="J65" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorBdv))| registro.IDC_BDV = msg.indicadorBdv;</v>
+        <v>|if(msg.codigoSisbacen != null &amp;&amp; msg.codigoSisbacen.Value &gt; 0)| registro.cod_empresa = msg.codigoSisbacen;</v>
       </c>
       <c r="K65" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.IDC_BDV)</v>
+        <v>registro.cod_empresa != null &amp;&amp; registro.cod_empresa.Value &gt; 0</v>
       </c>
       <c r="L65" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.IDC_BDV))| msg.indicadorBdv = registro.IDC_BDV;</v>
+        <v>|if(registro.cod_empresa != null &amp;&amp; registro.cod_empresa.Value &gt; 0)| msg.codigoSisbacen = registro.cod_empresa;</v>
       </c>
     </row>
     <row r="66" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H66" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public string IDC_CPN  { get; set; }</v>
+        <v>public int cod_oper  { get; set; }</v>
       </c>
       <c r="I66" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.indicadorCpn)</v>
+        <v>msg.codigoFuncionario != null &amp;&amp; msg.codigoFuncionario.Value &gt; 0</v>
       </c>
       <c r="J66" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorCpn))| registro.IDC_CPN = msg.indicadorCpn;</v>
+        <v>|if(msg.codigoFuncionario != null &amp;&amp; msg.codigoFuncionario.Value &gt; 0)| registro.cod_oper = msg.codigoFuncionario;</v>
       </c>
       <c r="K66" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.IDC_CPN)</v>
+        <v>registro.cod_oper != null &amp;&amp; registro.cod_oper.Value &gt; 0</v>
       </c>
       <c r="L66" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.IDC_CPN))| msg.indicadorCpn = registro.IDC_CPN;</v>
+        <v>|if(registro.cod_oper != null &amp;&amp; registro.cod_oper.Value &gt; 0)| msg.codigoFuncionario = registro.cod_oper;</v>
       </c>
     </row>
     <row r="67" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H67" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public int COD_PRODCARM  { get; set; }</v>
+        <v>public int cod_depend  { get; set; }</v>
       </c>
       <c r="I67" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>msg.codigoProdutoCARM != null &amp;&amp; msg.codigoProdutoCARM.Value &gt; 0</v>
+        <v>msg.codigoDependenciaSisbacen != null &amp;&amp; msg.codigoDependenciaSisbacen.Value &gt; 0</v>
       </c>
       <c r="J67" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(msg.codigoProdutoCARM != null &amp;&amp; msg.codigoProdutoCARM.Value &gt; 0)| registro.COD_PRODCARM = msg.codigoProdutoCARM;</v>
+        <v>|if(msg.codigoDependenciaSisbacen != null &amp;&amp; msg.codigoDependenciaSisbacen.Value &gt; 0)| registro.cod_depend = msg.codigoDependenciaSisbacen;</v>
       </c>
       <c r="K67" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>registro.COD_PRODCARM != null &amp;&amp; registro.COD_PRODCARM.Value &gt; 0</v>
+        <v>registro.cod_depend != null &amp;&amp; registro.cod_depend.Value &gt; 0</v>
       </c>
       <c r="L67" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(registro.COD_PRODCARM != null &amp;&amp; registro.COD_PRODCARM.Value &gt; 0)| msg.codigoProdutoCARM = registro.COD_PRODCARM;</v>
+        <v>|if(registro.cod_depend != null &amp;&amp; registro.cod_depend.Value &gt; 0)| msg.codigoDependenciaSisbacen = registro.cod_depend;</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>43</v>
+        <v>303</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H68" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public string DES_PRODCARM  { get; set; }</v>
+        <v>public string nom_oper  { get; set; }</v>
       </c>
       <c r="I68" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.descricaoProdutoCARM)</v>
+        <v>!string.IsNullOrWhiteSpace(msg.nomeFuncionario)</v>
       </c>
       <c r="J68" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.descricaoProdutoCARM))| registro.DES_PRODCARM = msg.descricaoProdutoCARM;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.nomeFuncionario))| registro.nom_oper = msg.nomeFuncionario;</v>
       </c>
       <c r="K68" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.DES_PRODCARM)</v>
+        <v>!string.IsNullOrWhiteSpace(registro.nom_oper)</v>
       </c>
       <c r="L68" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.DES_PRODCARM))| msg.descricaoProdutoCARM = registro.DES_PRODCARM;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(registro.nom_oper))| msg.nomeFuncionario = registro.nom_oper;</v>
       </c>
     </row>
     <row r="69" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>177</v>
+        <v>304</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H69" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public int cod_empresa  { get; set; }</v>
+        <v>public string nom_abv_oper  { get; set; }</v>
       </c>
       <c r="I69" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>msg.codigoSisbacen != null &amp;&amp; msg.codigoSisbacen.Value &gt; 0</v>
+        <v>!string.IsNullOrWhiteSpace(msg.nomeAbreviadoFuncionario)</v>
       </c>
       <c r="J69" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(msg.codigoSisbacen != null &amp;&amp; msg.codigoSisbacen.Value &gt; 0)| registro.cod_empresa = msg.codigoSisbacen;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.nomeAbreviadoFuncionario))| registro.nom_abv_oper = msg.nomeAbreviadoFuncionario;</v>
       </c>
       <c r="K69" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>registro.cod_empresa != null &amp;&amp; registro.cod_empresa.Value &gt; 0</v>
+        <v>!string.IsNullOrWhiteSpace(registro.nom_abv_oper)</v>
       </c>
       <c r="L69" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(registro.cod_empresa != null &amp;&amp; registro.cod_empresa.Value &gt; 0)| msg.codigoSisbacen = registro.cod_empresa;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(registro.nom_abv_oper))| msg.nomeAbreviadoFuncionario = registro.nom_abv_oper;</v>
       </c>
     </row>
     <row r="70" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H70" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public int cod_oper  { get; set; }</v>
+        <v>public string idt_oper  { get; set; }</v>
       </c>
       <c r="I70" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>msg.codigoFuncionario != null &amp;&amp; msg.codigoFuncionario.Value &gt; 0</v>
+        <v>!string.IsNullOrWhiteSpace(msg.identificadorFuncionario)</v>
       </c>
       <c r="J70" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(msg.codigoFuncionario != null &amp;&amp; msg.codigoFuncionario.Value &gt; 0)| registro.cod_oper = msg.codigoFuncionario;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.identificadorFuncionario))| registro.idt_oper = msg.identificadorFuncionario;</v>
       </c>
       <c r="K70" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>registro.cod_oper != null &amp;&amp; registro.cod_oper.Value &gt; 0</v>
+        <v>!string.IsNullOrWhiteSpace(registro.idt_oper)</v>
       </c>
       <c r="L70" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(registro.cod_oper != null &amp;&amp; registro.cod_oper.Value &gt; 0)| msg.codigoFuncionario = registro.cod_oper;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(registro.idt_oper))| msg.identificadorFuncionario = registro.idt_oper;</v>
       </c>
     </row>
     <row r="71" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>178</v>
+        <v>306</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H71" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public int cod_depend  { get; set; }</v>
+        <v>public string log_oper  { get; set; }</v>
       </c>
       <c r="I71" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>msg.codigoDependenciaSisbacen != null &amp;&amp; msg.codigoDependenciaSisbacen.Value &gt; 0</v>
+        <v>!string.IsNullOrWhiteSpace(msg.loginFuncionario)</v>
       </c>
       <c r="J71" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(msg.codigoDependenciaSisbacen != null &amp;&amp; msg.codigoDependenciaSisbacen.Value &gt; 0)| registro.cod_depend = msg.codigoDependenciaSisbacen;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.loginFuncionario))| registro.log_oper = msg.loginFuncionario;</v>
       </c>
       <c r="K71" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>registro.cod_depend != null &amp;&amp; registro.cod_depend.Value &gt; 0</v>
+        <v>!string.IsNullOrWhiteSpace(registro.log_oper)</v>
       </c>
       <c r="L71" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(registro.cod_depend != null &amp;&amp; registro.cod_depend.Value &gt; 0)| msg.codigoDependenciaSisbacen = registro.cod_depend;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(registro.log_oper))| msg.loginFuncionario = registro.log_oper;</v>
       </c>
     </row>
     <row r="72" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H72" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public string nom_oper  { get; set; }</v>
+        <v>public string tip_oper  { get; set; }</v>
       </c>
       <c r="I72" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.nomeFuncionario)</v>
+        <v>!string.IsNullOrWhiteSpace(msg.tipoFuncionario)</v>
       </c>
       <c r="J72" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.nomeFuncionario))| registro.nom_oper = msg.nomeFuncionario;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.tipoFuncionario))| registro.tip_oper = msg.tipoFuncionario;</v>
       </c>
       <c r="K72" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.nom_oper)</v>
+        <v>!string.IsNullOrWhiteSpace(registro.tip_oper)</v>
       </c>
       <c r="L72" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.nom_oper))| msg.nomeFuncionario = registro.nom_oper;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(registro.tip_oper))| msg.tipoFuncionario = registro.tip_oper;</v>
       </c>
     </row>
     <row r="73" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H73" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public string nom_abv_oper  { get; set; }</v>
+        <v>public DateTime dat_cad  { get; set; }</v>
       </c>
       <c r="I73" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.nomeAbreviadoFuncionario)</v>
+        <v>msg.dataCadastro != null &amp;&amp; msg.dataCadastro.Value != DateTime.MinValue</v>
       </c>
       <c r="J73" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.nomeAbreviadoFuncionario))| registro.nom_abv_oper = msg.nomeAbreviadoFuncionario;</v>
+        <v>|if(msg.dataCadastro != null &amp;&amp; msg.dataCadastro.Value != DateTime.MinValue)| registro.dat_cad = msg.dataCadastro;</v>
       </c>
       <c r="K73" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.nom_abv_oper)</v>
+        <v>registro.dat_cad != null &amp;&amp; registro.dat_cad.Value != DateTime.MinValue</v>
       </c>
       <c r="L73" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.nom_abv_oper))| msg.nomeAbreviadoFuncionario = registro.nom_abv_oper;</v>
+        <v>|if(registro.dat_cad != null &amp;&amp; registro.dat_cad.Value != DateTime.MinValue)| msg.dataCadastro = registro.dat_cad;</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H74" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public string idt_oper  { get; set; }</v>
+        <v>public string usu_atu  { get; set; }</v>
       </c>
       <c r="I74" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.identificadorFuncionario)</v>
+        <v>!string.IsNullOrWhiteSpace(msg.usuarioUltimaAtualizacao)</v>
       </c>
       <c r="J74" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.identificadorFuncionario))| registro.idt_oper = msg.identificadorFuncionario;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.usuarioUltimaAtualizacao))| registro.usu_atu = msg.usuarioUltimaAtualizacao;</v>
       </c>
       <c r="K74" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.idt_oper)</v>
+        <v>!string.IsNullOrWhiteSpace(registro.usu_atu)</v>
       </c>
       <c r="L74" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.idt_oper))| msg.identificadorFuncionario = registro.idt_oper;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(registro.usu_atu))| msg.usuarioUltimaAtualizacao = registro.usu_atu;</v>
       </c>
     </row>
     <row r="75" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H75" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public string log_oper  { get; set; }</v>
+        <v>public DateTime dat_atu  { get; set; }</v>
       </c>
       <c r="I75" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.loginFuncionario)</v>
+        <v>msg.dataUltimaAtualizacao != null &amp;&amp; msg.dataUltimaAtualizacao.Value != DateTime.MinValue</v>
       </c>
       <c r="J75" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.loginFuncionario))| registro.log_oper = msg.loginFuncionario;</v>
+        <v>|if(msg.dataUltimaAtualizacao != null &amp;&amp; msg.dataUltimaAtualizacao.Value != DateTime.MinValue)| registro.dat_atu = msg.dataUltimaAtualizacao;</v>
       </c>
       <c r="K75" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.log_oper)</v>
+        <v>registro.dat_atu != null &amp;&amp; registro.dat_atu.Value != DateTime.MinValue</v>
       </c>
       <c r="L75" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.log_oper))| msg.loginFuncionario = registro.log_oper;</v>
+        <v>|if(registro.dat_atu != null &amp;&amp; registro.dat_atu.Value != DateTime.MinValue)| msg.dataUltimaAtualizacao = registro.dat_atu;</v>
       </c>
     </row>
     <row r="76" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H76" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public string tip_oper  { get; set; }</v>
+        <v>public DateTime dat_sit  { get; set; }</v>
       </c>
       <c r="I76" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.tipoFuncionario)</v>
+        <v>msg.dataSituacao != null &amp;&amp; msg.dataSituacao.Value != DateTime.MinValue</v>
       </c>
       <c r="J76" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.tipoFuncionario))| registro.tip_oper = msg.tipoFuncionario;</v>
+        <v>|if(msg.dataSituacao != null &amp;&amp; msg.dataSituacao.Value != DateTime.MinValue)| registro.dat_sit = msg.dataSituacao;</v>
       </c>
       <c r="K76" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.tip_oper)</v>
+        <v>registro.dat_sit != null &amp;&amp; registro.dat_sit.Value != DateTime.MinValue</v>
       </c>
       <c r="L76" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.tip_oper))| msg.tipoFuncionario = registro.tip_oper;</v>
+        <v>|if(registro.dat_sit != null &amp;&amp; registro.dat_sit.Value != DateTime.MinValue)| msg.dataSituacao = registro.dat_sit;</v>
       </c>
     </row>
     <row r="77" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H77" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public DateTime dat_cad  { get; set; }</v>
+        <v>public string idc_sit  { get; set; }</v>
       </c>
       <c r="I77" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>msg.dataCadastro != null &amp;&amp; msg.dataCadastro.Value != DateTime.MinValue</v>
+        <v>!string.IsNullOrWhiteSpace(msg.indicadorSituacao)</v>
       </c>
       <c r="J77" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(msg.dataCadastro != null &amp;&amp; msg.dataCadastro.Value != DateTime.MinValue)| registro.dat_cad = msg.dataCadastro;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorSituacao))| registro.idc_sit = msg.indicadorSituacao;</v>
       </c>
       <c r="K77" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>registro.dat_cad != null &amp;&amp; registro.dat_cad.Value != DateTime.MinValue</v>
+        <v>!string.IsNullOrWhiteSpace(registro.idc_sit)</v>
       </c>
       <c r="L77" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(registro.dat_cad != null &amp;&amp; registro.dat_cad.Value != DateTime.MinValue)| msg.dataCadastro = registro.dat_cad;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(registro.idc_sit))| msg.indicadorSituacao = registro.idc_sit;</v>
       </c>
     </row>
     <row r="78" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H78" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public string usu_atu  { get; set; }</v>
+        <v>public int cod_cargo  { get; set; }</v>
       </c>
       <c r="I78" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.usuarioUltimaAtualizacao)</v>
+        <v>msg.codigoCargoFuncionario != null &amp;&amp; msg.codigoCargoFuncionario.Value &gt; 0</v>
       </c>
       <c r="J78" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.usuarioUltimaAtualizacao))| registro.usu_atu = msg.usuarioUltimaAtualizacao;</v>
+        <v>|if(msg.codigoCargoFuncionario != null &amp;&amp; msg.codigoCargoFuncionario.Value &gt; 0)| registro.cod_cargo = msg.codigoCargoFuncionario;</v>
       </c>
       <c r="K78" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.usu_atu)</v>
+        <v>registro.cod_cargo != null &amp;&amp; registro.cod_cargo.Value &gt; 0</v>
       </c>
       <c r="L78" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.usu_atu))| msg.usuarioUltimaAtualizacao = registro.usu_atu;</v>
+        <v>|if(registro.cod_cargo != null &amp;&amp; registro.cod_cargo.Value &gt; 0)| msg.codigoCargoFuncionario = registro.cod_cargo;</v>
       </c>
     </row>
     <row r="79" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H79" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public DateTime dat_atu  { get; set; }</v>
+        <v>public string cpf_oper  { get; set; }</v>
       </c>
       <c r="I79" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>msg.dataUltimaAtualizacao != null &amp;&amp; msg.dataUltimaAtualizacao.Value != DateTime.MinValue</v>
+        <v>!string.IsNullOrWhiteSpace(msg.cpfOperador)</v>
       </c>
       <c r="J79" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(msg.dataUltimaAtualizacao != null &amp;&amp; msg.dataUltimaAtualizacao.Value != DateTime.MinValue)| registro.dat_atu = msg.dataUltimaAtualizacao;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.cpfOperador))| registro.cpf_oper = msg.cpfOperador;</v>
       </c>
       <c r="K79" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>registro.dat_atu != null &amp;&amp; registro.dat_atu.Value != DateTime.MinValue</v>
+        <v>!string.IsNullOrWhiteSpace(registro.cpf_oper)</v>
       </c>
       <c r="L79" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(registro.dat_atu != null &amp;&amp; registro.dat_atu.Value != DateTime.MinValue)| msg.dataUltimaAtualizacao = registro.dat_atu;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(registro.cpf_oper))| msg.cpfOperador = registro.cpf_oper;</v>
       </c>
     </row>
     <row r="80" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H80" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public DateTime dat_sit  { get; set; }</v>
+        <v>public string dig_oper  { get; set; }</v>
       </c>
       <c r="I80" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>msg.dataSituacao != null &amp;&amp; msg.dataSituacao.Value != DateTime.MinValue</v>
+        <v>!string.IsNullOrWhiteSpace(msg.digitoOperador)</v>
       </c>
       <c r="J80" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(msg.dataSituacao != null &amp;&amp; msg.dataSituacao.Value != DateTime.MinValue)| registro.dat_sit = msg.dataSituacao;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.digitoOperador))| registro.dig_oper = msg.digitoOperador;</v>
       </c>
       <c r="K80" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>registro.dat_sit != null &amp;&amp; registro.dat_sit.Value != DateTime.MinValue</v>
+        <v>!string.IsNullOrWhiteSpace(registro.dig_oper)</v>
       </c>
       <c r="L80" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(registro.dat_sit != null &amp;&amp; registro.dat_sit.Value != DateTime.MinValue)| msg.dataSituacao = registro.dat_sit;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(registro.dig_oper))| msg.digitoOperador = registro.dig_oper;</v>
       </c>
     </row>
     <row r="81" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public string idc_sit  { get; set; }</v>
+        <v>public string sex_oper  { get; set; }</v>
       </c>
       <c r="I81" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.indicadorSituacao)</v>
+        <v>!string.IsNullOrWhiteSpace(msg.sexoOperador)</v>
       </c>
       <c r="J81" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorSituacao))| registro.idc_sit = msg.indicadorSituacao;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.sexoOperador))| registro.sex_oper = msg.sexoOperador;</v>
       </c>
       <c r="K81" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.idc_sit)</v>
+        <v>!string.IsNullOrWhiteSpace(registro.sex_oper)</v>
       </c>
       <c r="L81" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.idc_sit))| msg.indicadorSituacao = registro.idc_sit;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(registro.sex_oper))| msg.sexoOperador = registro.sex_oper;</v>
       </c>
     </row>
     <row r="82" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H82" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public int cod_cargo  { get; set; }</v>
+        <v>public string ddd_oper  { get; set; }</v>
       </c>
       <c r="I82" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>msg.codigoCargoFuncionario != null &amp;&amp; msg.codigoCargoFuncionario.Value &gt; 0</v>
+        <v>!string.IsNullOrWhiteSpace(msg.dddOperador)</v>
       </c>
       <c r="J82" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(msg.codigoCargoFuncionario != null &amp;&amp; msg.codigoCargoFuncionario.Value &gt; 0)| registro.cod_cargo = msg.codigoCargoFuncionario;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.dddOperador))| registro.ddd_oper = msg.dddOperador;</v>
       </c>
       <c r="K82" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>registro.cod_cargo != null &amp;&amp; registro.cod_cargo.Value &gt; 0</v>
+        <v>!string.IsNullOrWhiteSpace(registro.ddd_oper)</v>
       </c>
       <c r="L82" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(registro.cod_cargo != null &amp;&amp; registro.cod_cargo.Value &gt; 0)| msg.codigoCargoFuncionario = registro.cod_cargo;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(registro.ddd_oper))| msg.dddOperador = registro.ddd_oper;</v>
       </c>
     </row>
     <row r="83" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H83" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public string cpf_oper  { get; set; }</v>
+        <v>public string tel_oper  { get; set; }</v>
       </c>
       <c r="I83" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.cpfOperador)</v>
+        <v>!string.IsNullOrWhiteSpace(msg.telefoneOperador)</v>
       </c>
       <c r="J83" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.cpfOperador))| registro.cpf_oper = msg.cpfOperador;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.telefoneOperador))| registro.tel_oper = msg.telefoneOperador;</v>
       </c>
       <c r="K83" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.cpf_oper)</v>
+        <v>!string.IsNullOrWhiteSpace(registro.tel_oper)</v>
       </c>
       <c r="L83" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.cpf_oper))| msg.cpfOperador = registro.cpf_oper;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(registro.tel_oper))| msg.telefoneOperador = registro.tel_oper;</v>
       </c>
     </row>
     <row r="84" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H84" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public string dig_oper  { get; set; }</v>
+        <v>public string ram_oper  { get; set; }</v>
       </c>
       <c r="I84" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.digitoOperador)</v>
+        <v>!string.IsNullOrWhiteSpace(msg.ramalOperador)</v>
       </c>
       <c r="J84" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.digitoOperador))| registro.dig_oper = msg.digitoOperador;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.ramalOperador))| registro.ram_oper = msg.ramalOperador;</v>
       </c>
       <c r="K84" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.dig_oper)</v>
+        <v>!string.IsNullOrWhiteSpace(registro.ram_oper)</v>
       </c>
       <c r="L84" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.dig_oper))| msg.digitoOperador = registro.dig_oper;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(registro.ram_oper))| msg.ramalOperador = registro.ram_oper;</v>
       </c>
     </row>
     <row r="85" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H85" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public string sex_oper  { get; set; }</v>
+        <v>public string eml_oper  { get; set; }</v>
       </c>
       <c r="I85" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.sexoOperador)</v>
+        <v>!string.IsNullOrWhiteSpace(msg.emailOperador)</v>
       </c>
       <c r="J85" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.sexoOperador))| registro.sex_oper = msg.sexoOperador;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.emailOperador))| registro.eml_oper = msg.emailOperador;</v>
       </c>
       <c r="K85" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.sex_oper)</v>
+        <v>!string.IsNullOrWhiteSpace(registro.eml_oper)</v>
       </c>
       <c r="L85" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.sex_oper))| msg.sexoOperador = registro.sex_oper;</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>|if(!string.IsNullOrWhiteSpace(registro.eml_oper))| msg.emailOperador = registro.eml_oper;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H86" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public string ddd_oper  { get; set; }</v>
+        <v>public int cod_ger_origem  { get; set; }</v>
       </c>
       <c r="I86" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.dddOperador)</v>
+        <v>msg.codigoGerenteOrigem != null &amp;&amp; msg.codigoGerenteOrigem.Value &gt; 0</v>
       </c>
       <c r="J86" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.dddOperador))| registro.ddd_oper = msg.dddOperador;</v>
+        <v>|if(msg.codigoGerenteOrigem != null &amp;&amp; msg.codigoGerenteOrigem.Value &gt; 0)| registro.cod_ger_origem = msg.codigoGerenteOrigem;</v>
       </c>
       <c r="K86" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.ddd_oper)</v>
+        <v>registro.cod_ger_origem != null &amp;&amp; registro.cod_ger_origem.Value &gt; 0</v>
       </c>
       <c r="L86" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.ddd_oper))| msg.dddOperador = registro.ddd_oper;</v>
+        <v>|if(registro.cod_ger_origem != null &amp;&amp; registro.cod_ger_origem.Value &gt; 0)| msg.codigoGerenteOrigem = registro.cod_ger_origem;</v>
       </c>
     </row>
     <row r="87" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>335</v>
+        <v>74</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H87" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public string tel_oper  { get; set; }</v>
+        <v>public string OPECODCRK  { get; set; }</v>
       </c>
       <c r="I87" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.telefoneOperador)</v>
+        <v>!string.IsNullOrWhiteSpace(msg.codigoCRK)</v>
       </c>
       <c r="J87" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.telefoneOperador))| registro.tel_oper = msg.telefoneOperador;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoCRK))| registro.OPECODCRK = msg.codigoCRK;</v>
       </c>
       <c r="K87" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.tel_oper)</v>
+        <v>!string.IsNullOrWhiteSpace(registro.OPECODCRK)</v>
       </c>
       <c r="L87" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.tel_oper))| msg.telefoneOperador = registro.tel_oper;</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G88" s="5" t="s">
+        <v>|if(!string.IsNullOrWhiteSpace(registro.OPECODCRK))| msg.codigoCRK = registro.OPECODCRK;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G88" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H88" s="5" t="str">
+      <c r="H88" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>public string ram_oper  { get; set; }</v>
-      </c>
-      <c r="I88" s="5" t="str">
+        <v>public DateTime dat_ini_gerente  { get; set; }</v>
+      </c>
+      <c r="I88" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.ramalOperador)</v>
-      </c>
-      <c r="J88" s="5" t="str">
+        <v>msg.dataInicioOperacao != null &amp;&amp; msg.dataInicioOperacao.Value != DateTime.MinValue</v>
+      </c>
+      <c r="J88" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.ramalOperador))| registro.ram_oper = msg.ramalOperador;</v>
-      </c>
-      <c r="K88" s="5" t="str">
+        <v>|if(msg.dataInicioOperacao != null &amp;&amp; msg.dataInicioOperacao.Value != DateTime.MinValue)| registro.dat_ini_gerente = msg.dataInicioOperacao;</v>
+      </c>
+      <c r="K88" s="14" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.ram_oper)</v>
-      </c>
-      <c r="L88" s="5" t="str">
+        <v>registro.dat_ini_gerente != null &amp;&amp; registro.dat_ini_gerente.Value != DateTime.MinValue</v>
+      </c>
+      <c r="L88" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.ram_oper))| msg.ramalOperador = registro.ram_oper;</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G89" s="5" t="s">
+        <v>|if(registro.dat_ini_gerente != null &amp;&amp; registro.dat_ini_gerente.Value != DateTime.MinValue)| msg.dataInicioOperacao = registro.dat_ini_gerente;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G89" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H89" s="5" t="str">
+      <c r="H89" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>public string eml_oper  { get; set; }</v>
-      </c>
-      <c r="I89" s="5" t="str">
+        <v>public string tip_gerente  { get; set; }</v>
+      </c>
+      <c r="I89" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.emailOperador)</v>
-      </c>
-      <c r="J89" s="5" t="str">
+        <v>!string.IsNullOrWhiteSpace(msg.tipoGerente)</v>
+      </c>
+      <c r="J89" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.emailOperador))| registro.eml_oper = msg.emailOperador;</v>
-      </c>
-      <c r="K89" s="5" t="str">
+        <v>|if(!string.IsNullOrWhiteSpace(msg.tipoGerente))| registro.tip_gerente = msg.tipoGerente;</v>
+      </c>
+      <c r="K89" s="14" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.eml_oper)</v>
-      </c>
-      <c r="L89" s="5" t="str">
+        <v>!string.IsNullOrWhiteSpace(registro.tip_gerente)</v>
+      </c>
+      <c r="L89" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.eml_oper))| msg.emailOperador = registro.eml_oper;</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G90" s="5" t="s">
+        <v>|if(!string.IsNullOrWhiteSpace(registro.tip_gerente))| msg.tipoGerente = registro.tip_gerente;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G90" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H90" s="5" t="str">
+      <c r="H90" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>public int cod_ger_origem  { get; set; }</v>
-      </c>
-      <c r="I90" s="5" t="str">
+        <v>public string sit_gerente  { get; set; }</v>
+      </c>
+      <c r="I90" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>msg.codigoGerenteOrigem != null &amp;&amp; msg.codigoGerenteOrigem.Value &gt; 0</v>
-      </c>
-      <c r="J90" s="5" t="str">
+        <v>!string.IsNullOrWhiteSpace(msg.situacaoGerente)</v>
+      </c>
+      <c r="J90" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>|if(msg.codigoGerenteOrigem != null &amp;&amp; msg.codigoGerenteOrigem.Value &gt; 0)| registro.cod_ger_origem = msg.codigoGerenteOrigem;</v>
-      </c>
-      <c r="K90" s="5" t="str">
+        <v>|if(!string.IsNullOrWhiteSpace(msg.situacaoGerente))| registro.sit_gerente = msg.situacaoGerente;</v>
+      </c>
+      <c r="K90" s="14" t="str">
         <f t="shared" si="10"/>
-        <v>registro.cod_ger_origem != null &amp;&amp; registro.cod_ger_origem.Value &gt; 0</v>
-      </c>
-      <c r="L90" s="5" t="str">
+        <v>!string.IsNullOrWhiteSpace(registro.sit_gerente)</v>
+      </c>
+      <c r="L90" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>|if(registro.cod_ger_origem != null &amp;&amp; registro.cod_ger_origem.Value &gt; 0)| msg.codigoGerenteOrigem = registro.cod_ger_origem;</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G91" s="5" t="s">
+        <v>|if(!string.IsNullOrWhiteSpace(registro.sit_gerente))| msg.situacaoGerente = registro.sit_gerente;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G91" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H91" s="5" t="str">
+      <c r="H91" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>public string OPECODCRK  { get; set; }</v>
-      </c>
-      <c r="I91" s="5" t="str">
+        <v>public DateTime dat_fim_gerente  { get; set; }</v>
+      </c>
+      <c r="I91" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.codigoCRK)</v>
-      </c>
-      <c r="J91" s="5" t="str">
+        <v>msg.dataFimOperacao != null &amp;&amp; msg.dataFimOperacao.Value != DateTime.MinValue</v>
+      </c>
+      <c r="J91" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoCRK))| registro.OPECODCRK = msg.codigoCRK;</v>
-      </c>
-      <c r="K91" s="5" t="str">
+        <v>|if(msg.dataFimOperacao != null &amp;&amp; msg.dataFimOperacao.Value != DateTime.MinValue)| registro.dat_fim_gerente = msg.dataFimOperacao;</v>
+      </c>
+      <c r="K91" s="14" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.OPECODCRK)</v>
-      </c>
-      <c r="L91" s="5" t="str">
+        <v>registro.dat_fim_gerente != null &amp;&amp; registro.dat_fim_gerente.Value != DateTime.MinValue</v>
+      </c>
+      <c r="L91" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.OPECODCRK))| msg.codigoCRK = registro.OPECODCRK;</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>|if(registro.dat_fim_gerente != null &amp;&amp; registro.dat_fim_gerente.Value != DateTime.MinValue)| msg.dataFimOperacao = registro.dat_fim_gerente;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G92" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H92" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>public DateTime dat_ini_gerente  { get; set; }</v>
+        <v>public string GERIDCMAILCUCVCT  { get; set; }</v>
       </c>
       <c r="I92" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>msg.dataInicioOperacao != null &amp;&amp; msg.dataInicioOperacao.Value != DateTime.MinValue</v>
+        <v>!string.IsNullOrWhiteSpace(msg.indicadorRecebCadVencido)</v>
       </c>
       <c r="J92" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>|if(msg.dataInicioOperacao != null &amp;&amp; msg.dataInicioOperacao.Value != DateTime.MinValue)| registro.dat_ini_gerente = msg.dataInicioOperacao;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorRecebCadVencido))| registro.GERIDCMAILCUCVCT = msg.indicadorRecebCadVencido;</v>
       </c>
       <c r="K92" s="14" t="str">
         <f t="shared" si="10"/>
-        <v>registro.dat_ini_gerente != null &amp;&amp; registro.dat_ini_gerente.Value != DateTime.MinValue</v>
+        <v>!string.IsNullOrWhiteSpace(registro.GERIDCMAILCUCVCT)</v>
       </c>
       <c r="L92" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>|if(registro.dat_ini_gerente != null &amp;&amp; registro.dat_ini_gerente.Value != DateTime.MinValue)| msg.dataInicioOperacao = registro.dat_ini_gerente;</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F93" s="14" t="s">
+        <v>|if(!string.IsNullOrWhiteSpace(registro.GERIDCMAILCUCVCT))| msg.indicadorRecebCadVencido = registro.GERIDCMAILCUCVCT;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>public int emp_cod  { get; set; }</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>msg.codigoEmpresa != null &amp;&amp; msg.codigoEmpresa.Value &gt; 0</v>
+      </c>
+      <c r="J93" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|if(msg.codigoEmpresa != null &amp;&amp; msg.codigoEmpresa.Value &gt; 0)| registro.emp_cod = msg.codigoEmpresa;</v>
+      </c>
+      <c r="K93" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>registro.emp_cod != null &amp;&amp; registro.emp_cod.Value &gt; 0</v>
+      </c>
+      <c r="L93" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>|if(registro.emp_cod != null &amp;&amp; registro.emp_cod.Value &gt; 0)| msg.codigoEmpresa = registro.emp_cod;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>public int depend_cod  { get; set; }</v>
+      </c>
+      <c r="I94" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>msg.codigoDependencia != null &amp;&amp; msg.codigoDependencia.Value &gt; 0</v>
+      </c>
+      <c r="J94" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|if(msg.codigoDependencia != null &amp;&amp; msg.codigoDependencia.Value &gt; 0)| registro.depend_cod = msg.codigoDependencia;</v>
+      </c>
+      <c r="K94" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>registro.depend_cod != null &amp;&amp; registro.depend_cod.Value &gt; 0</v>
+      </c>
+      <c r="L94" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>|if(registro.depend_cod != null &amp;&amp; registro.depend_cod.Value &gt; 0)| msg.codigoDependencia = registro.depend_cod;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>public int oper_cod  { get; set; }</v>
+      </c>
+      <c r="I95" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>msg.codigoOperador != null &amp;&amp; msg.codigoOperador.Value &gt; 0</v>
+      </c>
+      <c r="J95" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|if(msg.codigoOperador != null &amp;&amp; msg.codigoOperador.Value &gt; 0)| registro.oper_cod = msg.codigoOperador;</v>
+      </c>
+      <c r="K95" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>registro.oper_cod != null &amp;&amp; registro.oper_cod.Value &gt; 0</v>
+      </c>
+      <c r="L95" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>|if(registro.oper_cod != null &amp;&amp; registro.oper_cod.Value &gt; 0)| msg.codigoOperador = registro.oper_cod;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D96" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="E96" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G96" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H93" s="14" t="str">
+      <c r="H96" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public string tip_gerente  { get; set; }</v>
-      </c>
-      <c r="I93" s="14" t="str">
+        <v>public int cod_grpemp  { get; set; }</v>
+      </c>
+      <c r="I96" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.tipoGerente)</v>
-      </c>
-      <c r="J93" s="14" t="str">
+        <v>msg.codigoGrupoEmpresarial != null &amp;&amp; msg.codigoGrupoEmpresarial.Value &gt; 0</v>
+      </c>
+      <c r="J96" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.tipoGerente))| registro.tip_gerente = msg.tipoGerente;</v>
-      </c>
-      <c r="K93" s="14" t="str">
+        <v>|if(msg.codigoGrupoEmpresarial != null &amp;&amp; msg.codigoGrupoEmpresarial.Value &gt; 0)| registro.cod_grpemp = msg.codigoGrupoEmpresarial;</v>
+      </c>
+      <c r="K96" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.tip_gerente)</v>
-      </c>
-      <c r="L93" s="14" t="str">
+        <v>registro.cod_grpemp != null &amp;&amp; registro.cod_grpemp.Value &gt; 0</v>
+      </c>
+      <c r="L96" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.tip_gerente))| msg.tipoGerente = registro.tip_gerente;</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G94" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H94" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>public string sit_gerente  { get; set; }</v>
-      </c>
-      <c r="I94" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.situacaoGerente)</v>
-      </c>
-      <c r="J94" s="14" t="str">
-        <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.situacaoGerente))| registro.sit_gerente = msg.situacaoGerente;</v>
-      </c>
-      <c r="K94" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.sit_gerente)</v>
-      </c>
-      <c r="L94" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.sit_gerente))| msg.situacaoGerente = registro.sit_gerente;</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D95" s="13" t="s">
+        <v>|if(registro.cod_grpemp != null &amp;&amp; registro.cod_grpemp.Value &gt; 0)| msg.codigoGrupoEmpresarial = registro.cod_grpemp;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G95" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H95" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>public DateTime dat_fim_gerente  { get; set; }</v>
-      </c>
-      <c r="I95" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>msg.dataFimOperacao != null &amp;&amp; msg.dataFimOperacao.Value != DateTime.MinValue</v>
-      </c>
-      <c r="J95" s="14" t="str">
-        <f t="shared" si="9"/>
-        <v>|if(msg.dataFimOperacao != null &amp;&amp; msg.dataFimOperacao.Value != DateTime.MinValue)| registro.dat_fim_gerente = msg.dataFimOperacao;</v>
-      </c>
-      <c r="K95" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>registro.dat_fim_gerente != null &amp;&amp; registro.dat_fim_gerente.Value != DateTime.MinValue</v>
-      </c>
-      <c r="L95" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>|if(registro.dat_fim_gerente != null &amp;&amp; registro.dat_fim_gerente.Value != DateTime.MinValue)| msg.dataFimOperacao = registro.dat_fim_gerente;</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F96" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G96" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H96" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>public string GERIDCMAILCUCVCT  { get; set; }</v>
-      </c>
-      <c r="I96" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>!string.IsNullOrWhiteSpace(msg.indicadorRecebCadVencido)</v>
-      </c>
-      <c r="J96" s="14" t="str">
-        <f t="shared" si="9"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorRecebCadVencido))| registro.GERIDCMAILCUCVCT = msg.indicadorRecebCadVencido;</v>
-      </c>
-      <c r="K96" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>!string.IsNullOrWhiteSpace(registro.GERIDCMAILCUCVCT)</v>
-      </c>
-      <c r="L96" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(registro.GERIDCMAILCUCVCT))| msg.indicadorRecebCadVencido = registro.GERIDCMAILCUCVCT;</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H97" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public int emp_cod  { get; set; }</v>
+        <v>public string abv_grpemp  { get; set; }</v>
       </c>
       <c r="I97" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>msg.codigoEmpresa != null &amp;&amp; msg.codigoEmpresa.Value &gt; 0</v>
+        <v>!string.IsNullOrWhiteSpace(msg.nomeAbreviadoGrupoEmpresarial)</v>
       </c>
       <c r="J97" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(msg.codigoEmpresa != null &amp;&amp; msg.codigoEmpresa.Value &gt; 0)| registro.emp_cod = msg.codigoEmpresa;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.nomeAbreviadoGrupoEmpresarial))| registro.abv_grpemp = msg.nomeAbreviadoGrupoEmpresarial;</v>
       </c>
       <c r="K97" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>registro.emp_cod != null &amp;&amp; registro.emp_cod.Value &gt; 0</v>
+        <v>!string.IsNullOrWhiteSpace(registro.abv_grpemp)</v>
       </c>
       <c r="L97" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(registro.emp_cod != null &amp;&amp; registro.emp_cod.Value &gt; 0)| msg.codigoEmpresa = registro.emp_cod;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(registro.abv_grpemp))| msg.nomeAbreviadoGrupoEmpresarial = registro.abv_grpemp;</v>
       </c>
     </row>
     <row r="98" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D98" s="6" t="s">
+      <c r="A98" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C98" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E98" s="6" t="s">
-        <v>10</v>
+      <c r="D98" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>0</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H98" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public int depend_cod  { get; set; }</v>
+        <v>public string des_grpemp  { get; set; }</v>
       </c>
       <c r="I98" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>msg.codigoDependencia != null &amp;&amp; msg.codigoDependencia.Value &gt; 0</v>
+        <v>!string.IsNullOrWhiteSpace(msg.nomedoGrupoEmpresarial)</v>
       </c>
       <c r="J98" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(msg.codigoDependencia != null &amp;&amp; msg.codigoDependencia.Value &gt; 0)| registro.depend_cod = msg.codigoDependencia;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.nomedoGrupoEmpresarial))| registro.des_grpemp = msg.nomedoGrupoEmpresarial;</v>
       </c>
       <c r="K98" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>registro.depend_cod != null &amp;&amp; registro.depend_cod.Value &gt; 0</v>
+        <v>!string.IsNullOrWhiteSpace(registro.des_grpemp)</v>
       </c>
       <c r="L98" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(registro.depend_cod != null &amp;&amp; registro.depend_cod.Value &gt; 0)| msg.codigoDependencia = registro.depend_cod;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(registro.des_grpemp))| msg.nomedoGrupoEmpresarial = registro.des_grpemp;</v>
       </c>
     </row>
     <row r="99" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99" s="6" t="s">
+      <c r="A99" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H99" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>public int oper_cod  { get; set; }</v>
+        <v>public int cod_empresa  { get; set; }</v>
       </c>
       <c r="I99" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>msg.codigoOperador != null &amp;&amp; msg.codigoOperador.Value &gt; 0</v>
+        <v>msg.codigoEmpresaSisbacen != null &amp;&amp; msg.codigoEmpresaSisbacen.Value &gt; 0</v>
       </c>
       <c r="J99" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if(msg.codigoOperador != null &amp;&amp; msg.codigoOperador.Value &gt; 0)| registro.oper_cod = msg.codigoOperador;</v>
+        <v>|if(msg.codigoEmpresaSisbacen != null &amp;&amp; msg.codigoEmpresaSisbacen.Value &gt; 0)| registro.cod_empresa = msg.codigoEmpresaSisbacen;</v>
       </c>
       <c r="K99" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>registro.oper_cod != null &amp;&amp; registro.oper_cod.Value &gt; 0</v>
+        <v>registro.cod_empresa != null &amp;&amp; registro.cod_empresa.Value &gt; 0</v>
       </c>
       <c r="L99" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(registro.oper_cod != null &amp;&amp; registro.oper_cod.Value &gt; 0)| msg.codigoOperador = registro.oper_cod;</v>
+        <v>|if(registro.cod_empresa != null &amp;&amp; registro.cod_empresa.Value &gt; 0)| msg.codigoEmpresaSisbacen = registro.cod_empresa;</v>
       </c>
     </row>
     <row r="100" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>public int cod_depend  { get; set; }</v>
+      </c>
+      <c r="I100" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>msg.codigoDependenciaSisbacen != null &amp;&amp; msg.codigoDependenciaSisbacen.Value &gt; 0</v>
+      </c>
       <c r="J100" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>|if()| . = .;</v>
-      </c>
-      <c r="K100" s="5" t="b">
+        <v>|if(msg.codigoDependenciaSisbacen != null &amp;&amp; msg.codigoDependenciaSisbacen.Value &gt; 0)| registro.cod_depend = msg.codigoDependenciaSisbacen;</v>
+      </c>
+      <c r="K100" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>registro.cod_depend != null &amp;&amp; registro.cod_depend.Value &gt; 0</v>
       </c>
       <c r="L100" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>|if(FALSE)| . = .;</v>
+        <v>|if(registro.cod_depend != null &amp;&amp; registro.cod_depend.Value &gt; 0)| msg.codigoDependenciaSisbacen = registro.cod_depend;</v>
       </c>
     </row>
     <row r="101" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10934,71 +10792,71 @@
     </row>
     <row r="113" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J113" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J113:J176" si="12">CONCATENATE("|if(",I113,")","| ",F113,".",B113," = ",G113,".",D113,";")</f>
         <v>|if()| . = .;</v>
       </c>
       <c r="K113" s="5" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="K113:K176" si="13">IF(E113="string",CONCATENATE("!string.IsNullOrWhiteSpace(",F113,".",B113,")"),IF(E113="int",CONCATENATE(F113,".",B113," != null &amp;&amp; ",F113,".",B113,".Value &gt; 0"),IF(E113="DateTime",CONCATENATE(F113,".",B113," != null &amp;&amp; ",F113,".",B113,".Value != DateTime.MinValue"),IF(E113="decimal",CONCATENATE(F113,".",B113," != null &amp;&amp; ",F113,".",B113,".Value &gt; 0")))))</f>
         <v>0</v>
       </c>
       <c r="L113" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="L113:L176" si="14">CONCATENATE("|if(",K113,")","| ",G113,".",D113," = ",F113,".",B113,";")</f>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
     <row r="114" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J114" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K114" s="5" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L114" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
     <row r="115" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J115" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K115" s="5" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L115" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
     <row r="116" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J116" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K116" s="5" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L116" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
     <row r="117" spans="10:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J117" s="5" t="str">
-        <f t="shared" ref="J117:J180" si="12">CONCATENATE("|if(",I117,")","| ",F117,".",B117," = ",G117,".",D117,";")</f>
+        <f t="shared" si="12"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K117" s="5" t="b">
-        <f t="shared" ref="K117:K180" si="13">IF(E117="string",CONCATENATE("!string.IsNullOrWhiteSpace(",F117,".",B117,")"),IF(E117="int",CONCATENATE(F117,".",B117," != null &amp;&amp; ",F117,".",B117,".Value &gt; 0"),IF(E117="DateTime",CONCATENATE(F117,".",B117," != null &amp;&amp; ",F117,".",B117,".Value != DateTime.MinValue"),IF(E117="decimal",CONCATENATE(F117,".",B117," != null &amp;&amp; ",F117,".",B117,".Value &gt; 0")))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L117" s="5" t="str">
-        <f t="shared" ref="L117:L180" si="14">CONCATENATE("|if(",K117,")","| ",G117,".",D117," = ",F117,".",B117,";")</f>
+        <f t="shared" si="14"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
@@ -11830,112 +11688,144 @@
     </row>
     <row r="177" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J177" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J177:J240" si="15">CONCATENATE("|if(",I177,")","| ",F177,".",B177," = ",G177,".",D177,";")</f>
         <v>|if()| . = .;</v>
       </c>
       <c r="K177" s="5" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="K177:K240" si="16">IF(E177="string",CONCATENATE("!string.IsNullOrWhiteSpace(",F177,".",B177,")"),IF(E177="int",CONCATENATE(F177,".",B177," != null &amp;&amp; ",F177,".",B177,".Value &gt; 0"),IF(E177="DateTime",CONCATENATE(F177,".",B177," != null &amp;&amp; ",F177,".",B177,".Value != DateTime.MinValue"),IF(E177="decimal",CONCATENATE(F177,".",B177," != null &amp;&amp; ",F177,".",B177,".Value &gt; 0")))))</f>
         <v>0</v>
       </c>
       <c r="L177" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="L177:L240" si="17">CONCATENATE("|if(",K177,")","| ",G177,".",D177," = ",F177,".",B177,";")</f>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
     <row r="178" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J178" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K178" s="5" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L178" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
     <row r="179" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J179" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K179" s="5" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L179" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
     <row r="180" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J180" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K180" s="5" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L180" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>|if(FALSE)| . = .;</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J181" s="5" t="str">
-        <f t="shared" ref="J181:J244" si="15">CONCATENATE("|if(",I181,")","| ",F181,".",B181," = ",G181,".",D181,";")</f>
-        <v>|if()| . = .;</v>
-      </c>
-      <c r="K181" s="5" t="b">
-        <f t="shared" ref="K181:K244" si="16">IF(E181="string",CONCATENATE("!string.IsNullOrWhiteSpace(",F181,".",B181,")"),IF(E181="int",CONCATENATE(F181,".",B181," != null &amp;&amp; ",F181,".",B181,".Value &gt; 0"),IF(E181="DateTime",CONCATENATE(F181,".",B181," != null &amp;&amp; ",F181,".",B181,".Value != DateTime.MinValue"),IF(E181="decimal",CONCATENATE(F181,".",B181," != null &amp;&amp; ",F181,".",B181,".Value &gt; 0")))))</f>
-        <v>0</v>
-      </c>
-      <c r="L181" s="5" t="str">
-        <f t="shared" ref="L181:L244" si="17">CONCATENATE("|if(",K181,")","| ",G181,".",D181," = ",F181,".",B181,";")</f>
-        <v>|if(FALSE)| . = .;</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J182" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>|if(FALSE)| . = .;</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="4" t="str">
         <f t="shared" si="15"/>
         <v>|if()| . = .;</v>
       </c>
-      <c r="K182" s="5" t="b">
+      <c r="K181" s="4" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L182" s="5" t="str">
+      <c r="L181" s="4" t="str">
         <f t="shared" si="17"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
-    <row r="183" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J183" s="5" t="str">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="4" t="str">
         <f t="shared" si="15"/>
         <v>|if()| . = .;</v>
       </c>
-      <c r="K183" s="5" t="b">
+      <c r="K182" s="4" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L183" s="5" t="str">
+      <c r="L182" s="4" t="str">
         <f t="shared" si="17"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
-    <row r="184" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J184" s="5" t="str">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="4" t="str">
         <f t="shared" si="15"/>
         <v>|if()| . = .;</v>
       </c>
-      <c r="K184" s="5" t="b">
+      <c r="K183" s="4" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L184" s="5" t="str">
+      <c r="L183" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>|if(FALSE)| . = .;</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>|if()| . = .;</v>
+      </c>
+      <c r="K184" s="4" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L184" s="4" t="str">
         <f t="shared" si="17"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
@@ -13182,15 +13072,15 @@
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
       <c r="J241" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="J241:J304" si="18">CONCATENATE("|if(",I241,")","| ",F241,".",B241," = ",G241,".",D241,";")</f>
         <v>|if()| . = .;</v>
       </c>
       <c r="K241" s="4" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="K241:K304" si="19">IF(E241="string",CONCATENATE("!string.IsNullOrWhiteSpace(",F241,".",B241,")"),IF(E241="int",CONCATENATE(F241,".",B241," != null &amp;&amp; ",F241,".",B241,".Value &gt; 0"),IF(E241="DateTime",CONCATENATE(F241,".",B241," != null &amp;&amp; ",F241,".",B241,".Value != DateTime.MinValue"),IF(E241="decimal",CONCATENATE(F241,".",B241," != null &amp;&amp; ",F241,".",B241,".Value &gt; 0")))))</f>
         <v>0</v>
       </c>
       <c r="L241" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="L241:L304" si="20">CONCATENATE("|if(",K241,")","| ",G241,".",D241," = ",F241,".",B241,";")</f>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
@@ -13204,15 +13094,15 @@
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K242" s="4" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L242" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
@@ -13226,15 +13116,15 @@
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K243" s="4" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L243" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
@@ -13248,15 +13138,15 @@
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K244" s="4" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L244" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
@@ -13270,15 +13160,15 @@
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="4" t="str">
-        <f t="shared" ref="J245:J308" si="18">CONCATENATE("|if(",I245,")","| ",F245,".",B245," = ",G245,".",D245,";")</f>
+        <f t="shared" si="18"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K245" s="4" t="b">
-        <f t="shared" ref="K245:K308" si="19">IF(E245="string",CONCATENATE("!string.IsNullOrWhiteSpace(",F245,".",B245,")"),IF(E245="int",CONCATENATE(F245,".",B245," != null &amp;&amp; ",F245,".",B245,".Value &gt; 0"),IF(E245="DateTime",CONCATENATE(F245,".",B245," != null &amp;&amp; ",F245,".",B245,".Value != DateTime.MinValue"),IF(E245="decimal",CONCATENATE(F245,".",B245," != null &amp;&amp; ",F245,".",B245,".Value &gt; 0")))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L245" s="4" t="str">
-        <f t="shared" ref="L245:L308" si="20">CONCATENATE("|if(",K245,")","| ",G245,".",D245," = ",F245,".",B245,";")</f>
+        <f t="shared" si="20"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
@@ -14590,15 +14480,15 @@
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
       <c r="J305" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="J305:J368" si="21">CONCATENATE("|if(",I305,")","| ",F305,".",B305," = ",G305,".",D305,";")</f>
         <v>|if()| . = .;</v>
       </c>
       <c r="K305" s="4" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="K305:K368" si="22">IF(E305="string",CONCATENATE("!string.IsNullOrWhiteSpace(",F305,".",B305,")"),IF(E305="int",CONCATENATE(F305,".",B305," != null &amp;&amp; ",F305,".",B305,".Value &gt; 0"),IF(E305="DateTime",CONCATENATE(F305,".",B305," != null &amp;&amp; ",F305,".",B305,".Value != DateTime.MinValue"),IF(E305="decimal",CONCATENATE(F305,".",B305," != null &amp;&amp; ",F305,".",B305,".Value &gt; 0")))))</f>
         <v>0</v>
       </c>
       <c r="L305" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="L305:L368" si="23">CONCATENATE("|if(",K305,")","| ",G305,".",D305," = ",F305,".",B305,";")</f>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
@@ -14612,15 +14502,15 @@
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
       <c r="J306" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K306" s="4" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L306" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
@@ -14634,15 +14524,15 @@
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
       <c r="J307" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K307" s="4" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L307" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
@@ -14656,15 +14546,15 @@
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
       <c r="J308" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K308" s="4" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L308" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
@@ -14678,15 +14568,15 @@
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
       <c r="J309" s="4" t="str">
-        <f t="shared" ref="J309:J372" si="21">CONCATENATE("|if(",I309,")","| ",F309,".",B309," = ",G309,".",D309,";")</f>
+        <f t="shared" si="21"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K309" s="4" t="b">
-        <f t="shared" ref="K309:K372" si="22">IF(E309="string",CONCATENATE("!string.IsNullOrWhiteSpace(",F309,".",B309,")"),IF(E309="int",CONCATENATE(F309,".",B309," != null &amp;&amp; ",F309,".",B309,".Value &gt; 0"),IF(E309="DateTime",CONCATENATE(F309,".",B309," != null &amp;&amp; ",F309,".",B309,".Value != DateTime.MinValue"),IF(E309="decimal",CONCATENATE(F309,".",B309," != null &amp;&amp; ",F309,".",B309,".Value &gt; 0")))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L309" s="4" t="str">
-        <f t="shared" ref="L309:L372" si="23">CONCATENATE("|if(",K309,")","| ",G309,".",D309," = ",F309,".",B309,";")</f>
+        <f t="shared" si="23"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
@@ -15998,15 +15888,15 @@
       <c r="H369" s="5"/>
       <c r="I369" s="5"/>
       <c r="J369" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="J369:J409" si="24">CONCATENATE("|if(",I369,")","| ",F369,".",B369," = ",G369,".",D369,";")</f>
         <v>|if()| . = .;</v>
       </c>
       <c r="K369" s="4" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="K369:K409" si="25">IF(E369="string",CONCATENATE("!string.IsNullOrWhiteSpace(",F369,".",B369,")"),IF(E369="int",CONCATENATE(F369,".",B369," != null &amp;&amp; ",F369,".",B369,".Value &gt; 0"),IF(E369="DateTime",CONCATENATE(F369,".",B369," != null &amp;&amp; ",F369,".",B369,".Value != DateTime.MinValue"),IF(E369="decimal",CONCATENATE(F369,".",B369," != null &amp;&amp; ",F369,".",B369,".Value &gt; 0")))))</f>
         <v>0</v>
       </c>
       <c r="L369" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="L369:L409" si="26">CONCATENATE("|if(",K369,")","| ",G369,".",D369," = ",F369,".",B369,";")</f>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
@@ -16020,15 +15910,15 @@
       <c r="H370" s="5"/>
       <c r="I370" s="5"/>
       <c r="J370" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K370" s="4" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L370" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
@@ -16042,15 +15932,15 @@
       <c r="H371" s="5"/>
       <c r="I371" s="5"/>
       <c r="J371" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K371" s="4" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L371" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
@@ -16064,15 +15954,15 @@
       <c r="H372" s="5"/>
       <c r="I372" s="5"/>
       <c r="J372" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K372" s="4" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L372" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
@@ -16086,15 +15976,15 @@
       <c r="H373" s="5"/>
       <c r="I373" s="5"/>
       <c r="J373" s="4" t="str">
-        <f t="shared" ref="J373:J413" si="24">CONCATENATE("|if(",I373,")","| ",F373,".",B373," = ",G373,".",D373,";")</f>
+        <f t="shared" si="24"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K373" s="4" t="b">
-        <f t="shared" ref="K373:K413" si="25">IF(E373="string",CONCATENATE("!string.IsNullOrWhiteSpace(",F373,".",B373,")"),IF(E373="int",CONCATENATE(F373,".",B373," != null &amp;&amp; ",F373,".",B373,".Value &gt; 0"),IF(E373="DateTime",CONCATENATE(F373,".",B373," != null &amp;&amp; ",F373,".",B373,".Value != DateTime.MinValue"),IF(E373="decimal",CONCATENATE(F373,".",B373," != null &amp;&amp; ",F373,".",B373,".Value &gt; 0")))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L373" s="4" t="str">
-        <f t="shared" ref="L373:L413" si="26">CONCATENATE("|if(",K373,")","| ",G373,".",D373," = ",F373,".",B373,";")</f>
+        <f t="shared" si="26"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
@@ -16899,18 +16789,6 @@
       <c r="G410" s="5"/>
       <c r="H410" s="5"/>
       <c r="I410" s="5"/>
-      <c r="J410" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>|if()| . = .;</v>
-      </c>
-      <c r="K410" s="4" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="L410" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>|if(FALSE)| . = .;</v>
-      </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="5"/>
@@ -16921,18 +16799,6 @@
       <c r="G411" s="5"/>
       <c r="H411" s="5"/>
       <c r="I411" s="5"/>
-      <c r="J411" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>|if()| . = .;</v>
-      </c>
-      <c r="K411" s="4" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="L411" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>|if(FALSE)| . = .;</v>
-      </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="5"/>
@@ -16943,18 +16809,6 @@
       <c r="G412" s="5"/>
       <c r="H412" s="5"/>
       <c r="I412" s="5"/>
-      <c r="J412" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>|if()| . = .;</v>
-      </c>
-      <c r="K412" s="4" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="L412" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>|if(FALSE)| . = .;</v>
-      </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="5"/>
@@ -16965,16 +16819,15 @@
       <c r="G413" s="5"/>
       <c r="H413" s="5"/>
       <c r="I413" s="5"/>
-      <c r="J413" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>|if()| . = .;</v>
+      <c r="J413" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="K413" s="4" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="K413:K436" si="27">IF(E413="string",CONCATENATE("!string.IsNullOrWhiteSpace(",F413,".",B413,")"),IF(E413="int",CONCATENATE(F413,".",B413," != null &amp;&amp; ",F413,".",B413,".Value &gt; 0"),IF(E413="DateTime",CONCATENATE(F413,".",B413," != null &amp;&amp; ",F413,".",B413,".Value != DateTime.MinValue"),IF(E413="decimal",CONCATENATE(F413,".",B413," != null &amp;&amp; ",F413,".",B413,".Value &gt; 0")))))</f>
         <v>0</v>
       </c>
       <c r="L413" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="L413:L436" si="28">CONCATENATE("|if(",K413,")","| ",G413,".",D413," = ",F413,".",B413,";")</f>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
@@ -16987,6 +16840,18 @@
       <c r="G414" s="5"/>
       <c r="H414" s="5"/>
       <c r="I414" s="5"/>
+      <c r="J414" s="4" t="str">
+        <f t="shared" ref="J414:J436" si="29">CONCATENATE("|if(",I414,")","| ",F414,".",B414," = ",G414,".",D414,";")</f>
+        <v>|if()| . = .;</v>
+      </c>
+      <c r="K414" s="4" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L414" s="4" t="str">
+        <f t="shared" si="28"/>
+        <v>|if(FALSE)| . = .;</v>
+      </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" s="5"/>
@@ -16997,6 +16862,18 @@
       <c r="G415" s="5"/>
       <c r="H415" s="5"/>
       <c r="I415" s="5"/>
+      <c r="J415" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>|if()| . = .;</v>
+      </c>
+      <c r="K415" s="4" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L415" s="4" t="str">
+        <f t="shared" si="28"/>
+        <v>|if(FALSE)| . = .;</v>
+      </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="5"/>
@@ -17007,6 +16884,18 @@
       <c r="G416" s="5"/>
       <c r="H416" s="5"/>
       <c r="I416" s="5"/>
+      <c r="J416" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>|if()| . = .;</v>
+      </c>
+      <c r="K416" s="4" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L416" s="4" t="str">
+        <f t="shared" si="28"/>
+        <v>|if(FALSE)| . = .;</v>
+      </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" s="5"/>
@@ -17017,15 +16906,16 @@
       <c r="G417" s="5"/>
       <c r="H417" s="5"/>
       <c r="I417" s="5"/>
-      <c r="J417" s="4" t="s">
-        <v>19</v>
+      <c r="J417" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>|if()| . = .;</v>
       </c>
       <c r="K417" s="4" t="b">
-        <f t="shared" ref="K417:K440" si="27">IF(E417="string",CONCATENATE("!string.IsNullOrWhiteSpace(",F417,".",B417,")"),IF(E417="int",CONCATENATE(F417,".",B417," != null &amp;&amp; ",F417,".",B417,".Value &gt; 0"),IF(E417="DateTime",CONCATENATE(F417,".",B417," != null &amp;&amp; ",F417,".",B417,".Value != DateTime.MinValue"),IF(E417="decimal",CONCATENATE(F417,".",B417," != null &amp;&amp; ",F417,".",B417,".Value &gt; 0")))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L417" s="4" t="str">
-        <f t="shared" ref="L417:L440" si="28">CONCATENATE("|if(",K417,")","| ",G417,".",D417," = ",F417,".",B417,";")</f>
+        <f t="shared" si="28"/>
         <v>|if(FALSE)| . = .;</v>
       </c>
     </row>
@@ -17039,7 +16929,7 @@
       <c r="H418" s="5"/>
       <c r="I418" s="5"/>
       <c r="J418" s="4" t="str">
-        <f t="shared" ref="J418:J440" si="29">CONCATENATE("|if(",I418,")","| ",F418,".",B418," = ",G418,".",D418,";")</f>
+        <f t="shared" si="29"/>
         <v>|if()| . = .;</v>
       </c>
       <c r="K418" s="4" t="b">
@@ -17448,95 +17338,7 @@
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A437" s="5"/>
-      <c r="B437" s="5"/>
-      <c r="D437" s="5"/>
-      <c r="E437" s="5"/>
-      <c r="F437" s="5"/>
-      <c r="G437" s="5"/>
-      <c r="H437" s="5"/>
-      <c r="I437" s="5"/>
-      <c r="J437" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>|if()| . = .;</v>
-      </c>
-      <c r="K437" s="4" t="b">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L437" s="4" t="str">
-        <f t="shared" si="28"/>
-        <v>|if(FALSE)| . = .;</v>
-      </c>
-    </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A438" s="5"/>
-      <c r="B438" s="5"/>
-      <c r="D438" s="5"/>
-      <c r="E438" s="5"/>
-      <c r="F438" s="5"/>
-      <c r="G438" s="5"/>
-      <c r="H438" s="5"/>
-      <c r="I438" s="5"/>
-      <c r="J438" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>|if()| . = .;</v>
-      </c>
-      <c r="K438" s="4" t="b">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L438" s="4" t="str">
-        <f t="shared" si="28"/>
-        <v>|if(FALSE)| . = .;</v>
-      </c>
-    </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A439" s="5"/>
-      <c r="B439" s="5"/>
-      <c r="D439" s="5"/>
-      <c r="E439" s="5"/>
-      <c r="F439" s="5"/>
-      <c r="G439" s="5"/>
-      <c r="H439" s="5"/>
-      <c r="I439" s="5"/>
-      <c r="J439" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>|if()| . = .;</v>
-      </c>
-      <c r="K439" s="4" t="b">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L439" s="4" t="str">
-        <f t="shared" si="28"/>
-        <v>|if(FALSE)| . = .;</v>
-      </c>
-    </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A440" s="5"/>
-      <c r="B440" s="5"/>
-      <c r="D440" s="5"/>
-      <c r="E440" s="5"/>
-      <c r="F440" s="5"/>
-      <c r="G440" s="5"/>
-      <c r="H440" s="5"/>
-      <c r="I440" s="5"/>
-      <c r="J440" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>|if()| . = .;</v>
-      </c>
-      <c r="K440" s="4" t="b">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L440" s="4" t="str">
-        <f t="shared" si="28"/>
-        <v>|if(FALSE)| . = .;</v>
-      </c>
-    </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L441" s="5"/>
+      <c r="L437" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
